--- a/tournament.xlsx
+++ b/tournament.xlsx
@@ -72,7 +72,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -103,9 +103,6 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
@@ -490,8 +487,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="33.57642857142857" bestFit="1" customWidth="1" style="14" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="14" min="3" max="3"/>
+    <col width="33.57642857142857" bestFit="1" customWidth="1" style="13" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="13" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -501,12 +498,12 @@
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="11" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="11" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
@@ -521,12 +518,12 @@
       <c r="A2" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>Armin</t>
         </is>
       </c>
-      <c r="C2" s="12" t="inlineStr">
+      <c r="C2" s="11" t="inlineStr">
         <is>
           <t>Kozek</t>
         </is>
@@ -537,12 +534,12 @@
       <c r="A3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" s="11" t="inlineStr">
         <is>
           <t>Máté</t>
         </is>
       </c>
-      <c r="C3" s="12" t="inlineStr">
+      <c r="C3" s="11" t="inlineStr">
         <is>
           <t>Morassi</t>
         </is>
@@ -553,12 +550,12 @@
       <c r="A4" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
         <is>
           <t>Martin</t>
         </is>
       </c>
-      <c r="C4" s="12" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>Dudás</t>
         </is>
@@ -569,12 +566,12 @@
       <c r="A5" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="inlineStr">
+      <c r="B5" s="11" t="inlineStr">
         <is>
           <t>Bence</t>
         </is>
       </c>
-      <c r="C5" s="12" t="inlineStr">
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>Juhász</t>
         </is>
@@ -585,12 +582,12 @@
       <c r="A6" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>Levente</t>
         </is>
       </c>
-      <c r="C6" s="12" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>Puha</t>
         </is>
@@ -601,12 +598,12 @@
       <c r="A7" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>Dióssi</t>
         </is>
       </c>
-      <c r="C7" s="12" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>Csaba</t>
         </is>
@@ -617,12 +614,12 @@
       <c r="A8" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="inlineStr">
+      <c r="B8" s="11" t="inlineStr">
         <is>
           <t>Bence</t>
         </is>
       </c>
-      <c r="C8" s="12" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>Matuz</t>
         </is>
@@ -633,12 +630,12 @@
       <c r="A9" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="inlineStr">
+      <c r="B9" s="11" t="inlineStr">
         <is>
           <t>Sezgin</t>
         </is>
       </c>
-      <c r="C9" s="12" t="inlineStr">
+      <c r="C9" s="11" t="inlineStr">
         <is>
           <t>Rustamov</t>
         </is>
@@ -649,12 +646,12 @@
       <c r="A10" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="inlineStr">
+      <c r="B10" s="11" t="inlineStr">
         <is>
           <t>Dávid</t>
         </is>
       </c>
-      <c r="C10" s="12" t="inlineStr">
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>Répási</t>
         </is>
@@ -665,12 +662,12 @@
       <c r="A11" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="inlineStr">
+      <c r="B11" s="11" t="inlineStr">
         <is>
           <t>Szántó</t>
         </is>
       </c>
-      <c r="C11" s="12" t="inlineStr">
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>Daniel</t>
         </is>
@@ -681,12 +678,12 @@
       <c r="A12" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="inlineStr">
+      <c r="B12" s="11" t="inlineStr">
         <is>
           <t>Levente</t>
         </is>
       </c>
-      <c r="C12" s="12" t="inlineStr">
+      <c r="C12" s="11" t="inlineStr">
         <is>
           <t>Toth</t>
         </is>
@@ -697,12 +694,12 @@
       <c r="A13" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="12" t="inlineStr">
+      <c r="B13" s="11" t="inlineStr">
         <is>
           <t>Zoltán</t>
         </is>
       </c>
-      <c r="C13" s="12" t="inlineStr">
+      <c r="C13" s="11" t="inlineStr">
         <is>
           <t>Molnár</t>
         </is>
@@ -713,12 +710,12 @@
       <c r="A14" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="inlineStr">
+      <c r="B14" s="11" t="inlineStr">
         <is>
           <t>Róbert</t>
         </is>
       </c>
-      <c r="C14" s="12" t="inlineStr">
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t>Horváth</t>
         </is>
@@ -729,12 +726,12 @@
       <c r="A15" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="inlineStr">
+      <c r="B15" s="11" t="inlineStr">
         <is>
           <t>Tibor</t>
         </is>
       </c>
-      <c r="C15" s="12" t="inlineStr">
+      <c r="C15" s="11" t="inlineStr">
         <is>
           <t>Farkasházi</t>
         </is>
@@ -745,12 +742,12 @@
       <c r="A16" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="inlineStr">
+      <c r="B16" s="11" t="inlineStr">
         <is>
           <t>Akzhan</t>
         </is>
       </c>
-      <c r="C16" s="12" t="inlineStr">
+      <c r="C16" s="11" t="inlineStr">
         <is>
           <t>Yeleukolova</t>
         </is>
@@ -761,12 +758,12 @@
       <c r="A17" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="12" t="inlineStr">
+      <c r="B17" s="11" t="inlineStr">
         <is>
           <t>András</t>
         </is>
       </c>
-      <c r="C17" s="12" t="inlineStr">
+      <c r="C17" s="11" t="inlineStr">
         <is>
           <t>Forgács</t>
         </is>
@@ -777,12 +774,12 @@
       <c r="A18" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="12" t="inlineStr">
+      <c r="B18" s="11" t="inlineStr">
         <is>
           <t>Krisztián</t>
         </is>
       </c>
-      <c r="C18" s="12" t="inlineStr">
+      <c r="C18" s="11" t="inlineStr">
         <is>
           <t>Dobos</t>
         </is>
@@ -793,12 +790,12 @@
       <c r="A19" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="inlineStr">
+      <c r="B19" s="11" t="inlineStr">
         <is>
           <t>Ahmed Walid</t>
         </is>
       </c>
-      <c r="C19" s="12" t="inlineStr">
+      <c r="C19" s="11" t="inlineStr">
         <is>
           <t>Belhadj</t>
         </is>
@@ -809,12 +806,12 @@
       <c r="A20" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="inlineStr">
+      <c r="B20" s="11" t="inlineStr">
         <is>
           <t>George</t>
         </is>
       </c>
-      <c r="C20" s="12" t="inlineStr">
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t>Hannmer</t>
         </is>
@@ -825,12 +822,12 @@
       <c r="A21" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="12" t="inlineStr">
+      <c r="B21" s="11" t="inlineStr">
         <is>
           <t>Benedek</t>
         </is>
       </c>
-      <c r="C21" s="12" t="inlineStr">
+      <c r="C21" s="11" t="inlineStr">
         <is>
           <t>Komlódi</t>
         </is>
@@ -841,12 +838,12 @@
       <c r="A22" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="12" t="inlineStr">
+      <c r="B22" s="11" t="inlineStr">
         <is>
           <t>Róbert</t>
         </is>
       </c>
-      <c r="C22" s="12" t="inlineStr">
+      <c r="C22" s="11" t="inlineStr">
         <is>
           <t>Faragó</t>
         </is>
@@ -857,12 +854,12 @@
       <c r="A23" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="12" t="inlineStr">
+      <c r="B23" s="11" t="inlineStr">
         <is>
           <t>Youness</t>
         </is>
       </c>
-      <c r="C23" s="12" t="inlineStr">
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>Sounni</t>
         </is>
@@ -873,12 +870,12 @@
       <c r="A24" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="12" t="inlineStr">
+      <c r="B24" s="11" t="inlineStr">
         <is>
           <t>Serhii</t>
         </is>
       </c>
-      <c r="C24" s="12" t="inlineStr">
+      <c r="C24" s="11" t="inlineStr">
         <is>
           <t>Omelchenko</t>
         </is>
@@ -889,12 +886,12 @@
       <c r="A25" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="12" t="inlineStr">
+      <c r="B25" s="11" t="inlineStr">
         <is>
           <t>Benedek</t>
         </is>
       </c>
-      <c r="C25" s="12" t="inlineStr">
+      <c r="C25" s="11" t="inlineStr">
         <is>
           <t>Buda</t>
         </is>
@@ -905,12 +902,12 @@
       <c r="A26" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="12" t="inlineStr">
+      <c r="B26" s="11" t="inlineStr">
         <is>
           <t>Igor</t>
         </is>
       </c>
-      <c r="C26" s="12" t="inlineStr">
+      <c r="C26" s="11" t="inlineStr">
         <is>
           <t>Vladimirov</t>
         </is>
@@ -921,12 +918,12 @@
       <c r="A27" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="12" t="inlineStr">
+      <c r="B27" s="11" t="inlineStr">
         <is>
           <t>Attila</t>
         </is>
       </c>
-      <c r="C27" s="12" t="inlineStr">
+      <c r="C27" s="11" t="inlineStr">
         <is>
           <t>Pintér</t>
         </is>
@@ -937,12 +934,12 @@
       <c r="A28" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="12" t="inlineStr">
+      <c r="B28" s="11" t="inlineStr">
         <is>
           <t>Márton</t>
         </is>
       </c>
-      <c r="C28" s="12" t="inlineStr">
+      <c r="C28" s="11" t="inlineStr">
         <is>
           <t>Gréczi</t>
         </is>
@@ -953,12 +950,12 @@
       <c r="A29" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="12" t="inlineStr">
+      <c r="B29" s="11" t="inlineStr">
         <is>
           <t>Dániel</t>
         </is>
       </c>
-      <c r="C29" s="12" t="inlineStr">
+      <c r="C29" s="11" t="inlineStr">
         <is>
           <t>Gubacsi</t>
         </is>
@@ -969,12 +966,12 @@
       <c r="A30" s="10" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="12" t="inlineStr">
+      <c r="B30" s="11" t="inlineStr">
         <is>
           <t>Benjámin</t>
         </is>
       </c>
-      <c r="C30" s="12" t="inlineStr">
+      <c r="C30" s="11" t="inlineStr">
         <is>
           <t>Kovács</t>
         </is>
@@ -985,12 +982,12 @@
       <c r="A31" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="12" t="inlineStr">
+      <c r="B31" s="11" t="inlineStr">
         <is>
           <t>Kozek</t>
         </is>
       </c>
-      <c r="C31" s="12" t="inlineStr">
+      <c r="C31" s="11" t="inlineStr">
         <is>
           <t>Lél Ágoston</t>
         </is>
@@ -1001,12 +998,12 @@
       <c r="A32" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="12" t="inlineStr">
+      <c r="B32" s="11" t="inlineStr">
         <is>
           <t>Roman</t>
         </is>
       </c>
-      <c r="C32" s="12" t="inlineStr">
+      <c r="C32" s="11" t="inlineStr">
         <is>
           <t>Chaudet</t>
         </is>
@@ -1017,12 +1014,12 @@
       <c r="A33" s="10" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="12" t="inlineStr">
+      <c r="B33" s="11" t="inlineStr">
         <is>
           <t>Máté</t>
         </is>
       </c>
-      <c r="C33" s="12" t="inlineStr">
+      <c r="C33" s="11" t="inlineStr">
         <is>
           <t>Takács</t>
         </is>
@@ -1033,12 +1030,12 @@
       <c r="A34" s="10" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="12" t="inlineStr">
+      <c r="B34" s="11" t="inlineStr">
         <is>
           <t>Olivér</t>
         </is>
       </c>
-      <c r="C34" s="12" t="inlineStr">
+      <c r="C34" s="11" t="inlineStr">
         <is>
           <t>Pavela</t>
         </is>
@@ -1049,12 +1046,12 @@
       <c r="A35" s="10" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="12" t="inlineStr">
+      <c r="B35" s="11" t="inlineStr">
         <is>
           <t>Róbert</t>
         </is>
       </c>
-      <c r="C35" s="12" t="inlineStr">
+      <c r="C35" s="11" t="inlineStr">
         <is>
           <t>Mátyás</t>
         </is>
@@ -1065,12 +1062,12 @@
       <c r="A36" s="10" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="12" t="inlineStr">
+      <c r="B36" s="11" t="inlineStr">
         <is>
           <t>Ben</t>
         </is>
       </c>
-      <c r="C36" s="12" t="inlineStr">
+      <c r="C36" s="11" t="inlineStr">
         <is>
           <t>Djawid</t>
         </is>
@@ -1081,12 +1078,12 @@
       <c r="A37" s="10" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="12" t="inlineStr">
+      <c r="B37" s="11" t="inlineStr">
         <is>
           <t>Dávid</t>
         </is>
       </c>
-      <c r="C37" s="12" t="inlineStr">
+      <c r="C37" s="11" t="inlineStr">
         <is>
           <t>Kozma</t>
         </is>
@@ -1097,12 +1094,12 @@
       <c r="A38" s="10" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="12" t="inlineStr">
+      <c r="B38" s="11" t="inlineStr">
         <is>
           <t>Dennis</t>
         </is>
       </c>
-      <c r="C38" s="12" t="inlineStr">
+      <c r="C38" s="11" t="inlineStr">
         <is>
           <t>Szekula</t>
         </is>
@@ -1113,12 +1110,12 @@
       <c r="A39" s="10" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="12" t="inlineStr">
+      <c r="B39" s="11" t="inlineStr">
         <is>
           <t>Richárd</t>
         </is>
       </c>
-      <c r="C39" s="12" t="inlineStr">
+      <c r="C39" s="11" t="inlineStr">
         <is>
           <t>Patócs</t>
         </is>
@@ -1129,12 +1126,12 @@
       <c r="A40" s="10" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="12" t="inlineStr">
+      <c r="B40" s="11" t="inlineStr">
         <is>
           <t>Tamas</t>
         </is>
       </c>
-      <c r="C40" s="12" t="inlineStr">
+      <c r="C40" s="11" t="inlineStr">
         <is>
           <t>Lippner</t>
         </is>
@@ -1145,12 +1142,12 @@
       <c r="A41" s="10" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="12" t="inlineStr">
+      <c r="B41" s="11" t="inlineStr">
         <is>
           <t>István</t>
         </is>
       </c>
-      <c r="C41" s="12" t="inlineStr">
+      <c r="C41" s="11" t="inlineStr">
         <is>
           <t>Böjti</t>
         </is>
@@ -1161,12 +1158,12 @@
       <c r="A42" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="12" t="inlineStr">
+      <c r="B42" s="11" t="inlineStr">
         <is>
           <t>Nagy</t>
         </is>
       </c>
-      <c r="C42" s="12" t="inlineStr">
+      <c r="C42" s="11" t="inlineStr">
         <is>
           <t>Zoltán</t>
         </is>
@@ -1177,12 +1174,12 @@
       <c r="A43" s="10" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="12" t="inlineStr">
+      <c r="B43" s="11" t="inlineStr">
         <is>
           <t>Roland</t>
         </is>
       </c>
-      <c r="C43" s="12" t="inlineStr">
+      <c r="C43" s="11" t="inlineStr">
         <is>
           <t>Nagy</t>
         </is>
@@ -1193,12 +1190,12 @@
       <c r="A44" s="10" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="12" t="inlineStr">
+      <c r="B44" s="11" t="inlineStr">
         <is>
           <t>Ákos</t>
         </is>
       </c>
-      <c r="C44" s="12" t="inlineStr">
+      <c r="C44" s="11" t="inlineStr">
         <is>
           <t>János</t>
         </is>
@@ -1209,12 +1206,12 @@
       <c r="A45" s="10" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="12" t="inlineStr">
+      <c r="B45" s="11" t="inlineStr">
         <is>
           <t>Sámuel</t>
         </is>
       </c>
-      <c r="C45" s="12" t="inlineStr">
+      <c r="C45" s="11" t="inlineStr">
         <is>
           <t>Galambos</t>
         </is>
@@ -1225,12 +1222,12 @@
       <c r="A46" s="10" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="12" t="inlineStr">
+      <c r="B46" s="11" t="inlineStr">
         <is>
           <t>Dávid</t>
         </is>
       </c>
-      <c r="C46" s="12" t="inlineStr">
+      <c r="C46" s="11" t="inlineStr">
         <is>
           <t>Morassi</t>
         </is>
@@ -1241,12 +1238,12 @@
       <c r="A47" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="12" t="inlineStr">
+      <c r="B47" s="11" t="inlineStr">
         <is>
           <t>Richárd</t>
         </is>
       </c>
-      <c r="C47" s="12" t="inlineStr">
+      <c r="C47" s="11" t="inlineStr">
         <is>
           <t>Bezzegh</t>
         </is>
@@ -1257,12 +1254,12 @@
       <c r="A48" s="10" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="12" t="inlineStr">
+      <c r="B48" s="11" t="inlineStr">
         <is>
           <t>Áron</t>
         </is>
       </c>
-      <c r="C48" s="12" t="inlineStr">
+      <c r="C48" s="11" t="inlineStr">
         <is>
           <t>Takács</t>
         </is>
@@ -1273,12 +1270,12 @@
       <c r="A49" s="10" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="12" t="inlineStr">
+      <c r="B49" s="11" t="inlineStr">
         <is>
           <t>Agoston</t>
         </is>
       </c>
-      <c r="C49" s="12" t="inlineStr">
+      <c r="C49" s="11" t="inlineStr">
         <is>
           <t>Berndt</t>
         </is>
@@ -1289,12 +1286,12 @@
       <c r="A50" s="10" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="12" t="inlineStr">
+      <c r="B50" s="11" t="inlineStr">
         <is>
           <t>Szabolcs</t>
         </is>
       </c>
-      <c r="C50" s="12" t="inlineStr">
+      <c r="C50" s="11" t="inlineStr">
         <is>
           <t>Dudás</t>
         </is>
@@ -1305,12 +1302,12 @@
       <c r="A51" s="10" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="12" t="inlineStr">
+      <c r="B51" s="11" t="inlineStr">
         <is>
           <t>Boulakbech</t>
         </is>
       </c>
-      <c r="C51" s="12" t="inlineStr">
+      <c r="C51" s="11" t="inlineStr">
         <is>
           <t>Riadh</t>
         </is>
@@ -1321,12 +1318,12 @@
       <c r="A52" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="12" t="inlineStr">
+      <c r="B52" s="11" t="inlineStr">
         <is>
           <t>Levente</t>
         </is>
       </c>
-      <c r="C52" s="12" t="inlineStr">
+      <c r="C52" s="11" t="inlineStr">
         <is>
           <t>Koppany</t>
         </is>
@@ -1337,12 +1334,12 @@
       <c r="A53" s="10" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="12" t="inlineStr">
+      <c r="B53" s="11" t="inlineStr">
         <is>
           <t>Enikő</t>
         </is>
       </c>
-      <c r="C53" s="12" t="inlineStr">
+      <c r="C53" s="11" t="inlineStr">
         <is>
           <t>Paragi</t>
         </is>
@@ -1353,12 +1350,12 @@
       <c r="A54" s="10" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="12" t="inlineStr">
+      <c r="B54" s="11" t="inlineStr">
         <is>
           <t>Ákos</t>
         </is>
       </c>
-      <c r="C54" s="12" t="inlineStr">
+      <c r="C54" s="11" t="inlineStr">
         <is>
           <t>Pogasits</t>
         </is>
@@ -1369,12 +1366,12 @@
       <c r="A55" s="10" t="n">
         <v>53</v>
       </c>
-      <c r="B55" s="12" t="inlineStr">
+      <c r="B55" s="11" t="inlineStr">
         <is>
           <t>Dariia</t>
         </is>
       </c>
-      <c r="C55" s="12" t="inlineStr">
+      <c r="C55" s="11" t="inlineStr">
         <is>
           <t>Sataeva</t>
         </is>
@@ -1385,12 +1382,12 @@
       <c r="A56" s="10" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="12" t="inlineStr">
+      <c r="B56" s="11" t="inlineStr">
         <is>
           <t>Ronye</t>
         </is>
       </c>
-      <c r="C56" s="12" t="inlineStr">
+      <c r="C56" s="11" t="inlineStr">
         <is>
           <t>Vernaes</t>
         </is>
@@ -1401,12 +1398,12 @@
       <c r="A57" s="10" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="12" t="inlineStr">
+      <c r="B57" s="11" t="inlineStr">
         <is>
           <t>Mohay</t>
         </is>
       </c>
-      <c r="C57" s="12" t="inlineStr">
+      <c r="C57" s="11" t="inlineStr">
         <is>
           <t>András</t>
         </is>
@@ -1417,12 +1414,12 @@
       <c r="A58" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="13" t="inlineStr">
+      <c r="B58" s="12" t="inlineStr">
         <is>
           <t>Julianna</t>
         </is>
       </c>
-      <c r="C58" s="13" t="inlineStr">
+      <c r="C58" s="12" t="inlineStr">
         <is>
           <t>Poole</t>
         </is>
@@ -1433,12 +1430,12 @@
       <c r="A59" s="10" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="13" t="inlineStr">
+      <c r="B59" s="12" t="inlineStr">
         <is>
           <t>Quincy</t>
         </is>
       </c>
-      <c r="C59" s="13" t="inlineStr">
+      <c r="C59" s="12" t="inlineStr">
         <is>
           <t>Buck</t>
         </is>
@@ -1449,12 +1446,12 @@
       <c r="A60" s="10" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="13" t="inlineStr">
+      <c r="B60" s="12" t="inlineStr">
         <is>
           <t>Livia</t>
         </is>
       </c>
-      <c r="C60" s="13" t="inlineStr">
+      <c r="C60" s="12" t="inlineStr">
         <is>
           <t>Levy</t>
         </is>
@@ -1465,12 +1462,12 @@
       <c r="A61" s="10" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="13" t="inlineStr">
+      <c r="B61" s="12" t="inlineStr">
         <is>
           <t>Harold</t>
         </is>
       </c>
-      <c r="C61" s="13" t="inlineStr">
+      <c r="C61" s="12" t="inlineStr">
         <is>
           <t>Conrad</t>
         </is>
@@ -1500,8 +1497,8 @@
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-    <col width="11.14785714285714" bestFit="1" customWidth="1" style="11" min="5" max="5"/>
-    <col width="11.14785714285714" bestFit="1" customWidth="1" style="11" min="6" max="6"/>
+    <col width="11.14785714285714" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="11.14785714285714" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customFormat="1" customHeight="1" s="6">
@@ -1549,12 +1546,8 @@
       <c r="D2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="10" t="n"/>
+      <c r="F2" s="10" t="n"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="n">
@@ -1569,12 +1562,8 @@
       <c r="D3" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="10" t="n"/>
+      <c r="F3" s="10" t="n"/>
     </row>
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="n">
@@ -2081,11 +2070,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Livia Levy</t>
+          <t>Armin Kozek</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2103,11 +2092,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Harold Conrad</t>
+          <t>Máté Morassi</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2125,14 +2114,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Armin Kozek</t>
+          <t>Martin Dudás</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2147,14 +2136,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Máté Morassi</t>
+          <t>Bence Juhász</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2169,7 +2158,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Martin Dudás</t>
+          <t>Levente Puha</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2191,7 +2180,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bence Juhász</t>
+          <t>Dióssi Csaba</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -2213,7 +2202,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Levente Puha</t>
+          <t>Bence Matuz</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -2235,7 +2224,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dióssi Csaba</t>
+          <t>Sezgin Rustamov</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -2257,7 +2246,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bence Matuz</t>
+          <t>Dávid Répási</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -2279,7 +2268,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sezgin Rustamov</t>
+          <t>Szántó Daniel</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -2301,7 +2290,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dávid Répási</t>
+          <t>Levente Toth</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -2323,7 +2312,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Szántó Daniel</t>
+          <t>Zoltán Molnár</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -2345,7 +2334,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Levente Toth</t>
+          <t>Róbert Horváth</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -2367,7 +2356,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Zoltán Molnár</t>
+          <t>Tibor Farkasházi</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -2389,7 +2378,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Róbert Horváth</t>
+          <t>Akzhan Yeleukolova</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -2411,7 +2400,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tibor Farkasházi</t>
+          <t>András Forgács</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -2433,7 +2422,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Akzhan Yeleukolova</t>
+          <t>Krisztián Dobos</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2455,7 +2444,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>András Forgács</t>
+          <t>Ahmed Walid Belhadj</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2477,7 +2466,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Krisztián Dobos</t>
+          <t>George Hannmer</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2499,7 +2488,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ahmed Walid Belhadj</t>
+          <t>Benedek Komlódi</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2521,7 +2510,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>George Hannmer</t>
+          <t>Róbert Faragó</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2543,7 +2532,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Benedek Komlódi</t>
+          <t>Youness Sounni</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2565,7 +2554,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Róbert Faragó</t>
+          <t>Serhii Omelchenko</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2587,7 +2576,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Youness Sounni</t>
+          <t>Benedek Buda</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2609,7 +2598,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Serhii Omelchenko</t>
+          <t>Igor Vladimirov</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2631,7 +2620,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Benedek Buda</t>
+          <t>Attila Pintér</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2653,7 +2642,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Igor Vladimirov</t>
+          <t>Márton Gréczi</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2675,7 +2664,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Attila Pintér</t>
+          <t>Dániel Gubacsi</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -2697,7 +2686,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Márton Gréczi</t>
+          <t>Benjámin Kovács</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -2719,7 +2708,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dániel Gubacsi</t>
+          <t>Kozek Lél Ágoston</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -2741,7 +2730,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Benjámin Kovács</t>
+          <t>Roman Chaudet</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -2763,7 +2752,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Kozek Lél Ágoston</t>
+          <t>Máté Takács</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -2785,7 +2774,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Roman Chaudet</t>
+          <t>Olivér Pavela</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2807,7 +2796,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Máté Takács</t>
+          <t>Róbert Mátyás</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -2829,7 +2818,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Olivér Pavela</t>
+          <t>Ben Djawid</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2851,7 +2840,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Róbert Mátyás</t>
+          <t>Dávid Kozma</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2873,7 +2862,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ben Djawid</t>
+          <t>Dennis Szekula</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -2895,7 +2884,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Dávid Kozma</t>
+          <t>Richárd Patócs</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2917,7 +2906,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Dennis Szekula</t>
+          <t>Tamas Lippner</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2939,7 +2928,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Richárd Patócs</t>
+          <t>István Böjti</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2961,7 +2950,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tamas Lippner</t>
+          <t>Nagy Zoltán</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -2983,7 +2972,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>István Böjti</t>
+          <t>Roland Nagy</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -3005,7 +2994,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nagy Zoltán</t>
+          <t>Ákos János</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -3027,7 +3016,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Roland Nagy</t>
+          <t>Sámuel Galambos</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -3049,7 +3038,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ákos János</t>
+          <t>Dávid Morassi</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -3071,7 +3060,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sámuel Galambos</t>
+          <t>Richárd Bezzegh</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -3093,7 +3082,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Dávid Morassi</t>
+          <t>Áron Takács</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -3115,7 +3104,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Richárd Bezzegh</t>
+          <t>Agoston Berndt</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -3137,7 +3126,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Áron Takács</t>
+          <t>Szabolcs Dudás</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -3159,7 +3148,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Agoston Berndt</t>
+          <t>Boulakbech Riadh</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -3181,7 +3170,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Szabolcs Dudás</t>
+          <t>Levente Koppany</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -3203,7 +3192,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Boulakbech Riadh</t>
+          <t>Enikő Paragi</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -3225,7 +3214,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Levente Koppany</t>
+          <t>Ákos Pogasits</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -3247,7 +3236,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Enikő Paragi</t>
+          <t>Dariia Sataeva</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -3269,7 +3258,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ákos Pogasits</t>
+          <t>Ronye Vernaes</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -3291,7 +3280,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Dariia Sataeva</t>
+          <t>Mohay András</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -3313,7 +3302,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ronye Vernaes</t>
+          <t>Julianna Poole</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -3335,7 +3324,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mohay András</t>
+          <t>Quincy Buck</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -3357,7 +3346,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Julianna Poole</t>
+          <t>Livia Levy</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -3379,7 +3368,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Quincy Buck</t>
+          <t>Harold Conrad</t>
         </is>
       </c>
       <c r="C61" t="n">

--- a/tournament.xlsx
+++ b/tournament.xlsx
@@ -29,12 +29,6 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
@@ -43,6 +37,12 @@
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,16 +72,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -92,22 +89,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -486,993 +489,993 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="33.57642857142857" bestFit="1" customWidth="1" style="13" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="13" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="33.57642857142857" bestFit="1" customWidth="1" style="14" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="14" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="8" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="8" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Full Name</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="A2" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="inlineStr">
         <is>
           <t>Armin</t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
+      <c r="C2" s="8" t="inlineStr">
         <is>
           <t>Kozek</t>
         </is>
       </c>
-      <c r="D2" s="5" t="n"/>
+      <c r="D2" s="4" t="n"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="A3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>Máté</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>Morassi</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n"/>
+      <c r="D3" s="4" t="n"/>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>Martin</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>Dudás</t>
         </is>
       </c>
-      <c r="D4" s="5" t="n"/>
+      <c r="D4" s="4" t="n"/>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>Bence</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>Juhász</t>
         </is>
       </c>
-      <c r="D5" s="5" t="n"/>
+      <c r="D5" s="4" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>Levente</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>Puha</t>
         </is>
       </c>
-      <c r="D6" s="5" t="n"/>
+      <c r="D6" s="4" t="n"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>Dióssi</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>Csaba</t>
         </is>
       </c>
-      <c r="D7" s="5" t="n"/>
+      <c r="D7" s="4" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>Bence</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>Matuz</t>
         </is>
       </c>
-      <c r="D8" s="5" t="n"/>
+      <c r="D8" s="4" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>Sezgin</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>Rustamov</t>
         </is>
       </c>
-      <c r="D9" s="5" t="n"/>
+      <c r="D9" s="4" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>Dávid</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C10" s="8" t="inlineStr">
         <is>
           <t>Répási</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n"/>
+      <c r="D10" s="4" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>Szántó</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>Daniel</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n"/>
+      <c r="D11" s="4" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="11" t="n">
+      <c r="A12" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>Levente</t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>Toth</t>
         </is>
       </c>
-      <c r="D12" s="5" t="n"/>
+      <c r="D12" s="4" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="11" t="n">
+      <c r="A13" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>Zoltán</t>
         </is>
       </c>
-      <c r="C13" s="9" t="inlineStr">
+      <c r="C13" s="8" t="inlineStr">
         <is>
           <t>Molnár</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n"/>
+      <c r="D13" s="4" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="11" t="n">
+      <c r="A14" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>Róbert</t>
         </is>
       </c>
-      <c r="C14" s="9" t="inlineStr">
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>Horváth</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n"/>
+      <c r="D14" s="4" t="n"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="11" t="n">
+      <c r="A15" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>Tibor</t>
         </is>
       </c>
-      <c r="C15" s="9" t="inlineStr">
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>Farkasházi</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n"/>
+      <c r="D15" s="4" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="11" t="n">
+      <c r="A16" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>Akzhan</t>
         </is>
       </c>
-      <c r="C16" s="9" t="inlineStr">
+      <c r="C16" s="8" t="inlineStr">
         <is>
           <t>Yeleukolova</t>
         </is>
       </c>
-      <c r="D16" s="5" t="n"/>
+      <c r="D16" s="4" t="n"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="11" t="n">
+      <c r="A17" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>András</t>
         </is>
       </c>
-      <c r="C17" s="9" t="inlineStr">
+      <c r="C17" s="8" t="inlineStr">
         <is>
           <t>Forgács</t>
         </is>
       </c>
-      <c r="D17" s="5" t="n"/>
+      <c r="D17" s="4" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="11" t="n">
+      <c r="A18" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>Krisztián</t>
         </is>
       </c>
-      <c r="C18" s="9" t="inlineStr">
+      <c r="C18" s="8" t="inlineStr">
         <is>
           <t>Dobos</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n"/>
+      <c r="D18" s="4" t="n"/>
     </row>
     <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="11" t="n">
+      <c r="A19" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>Ahmed Walid</t>
         </is>
       </c>
-      <c r="C19" s="9" t="inlineStr">
+      <c r="C19" s="8" t="inlineStr">
         <is>
           <t>Belhadj</t>
         </is>
       </c>
-      <c r="D19" s="5" t="n"/>
+      <c r="D19" s="4" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="11" t="n">
+      <c r="A20" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>George</t>
         </is>
       </c>
-      <c r="C20" s="9" t="inlineStr">
+      <c r="C20" s="8" t="inlineStr">
         <is>
           <t>Hannmer</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n"/>
+      <c r="D20" s="4" t="n"/>
     </row>
     <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" s="11" t="n">
+      <c r="A21" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>Benedek</t>
         </is>
       </c>
-      <c r="C21" s="9" t="inlineStr">
+      <c r="C21" s="8" t="inlineStr">
         <is>
           <t>Komlódi</t>
         </is>
       </c>
-      <c r="D21" s="5" t="n"/>
+      <c r="D21" s="4" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="11" t="n">
+      <c r="A22" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>Róbert</t>
         </is>
       </c>
-      <c r="C22" s="9" t="inlineStr">
+      <c r="C22" s="8" t="inlineStr">
         <is>
           <t>Faragó</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n"/>
+      <c r="D22" s="4" t="n"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="11" t="n">
+      <c r="A23" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
         <is>
           <t>Youness</t>
         </is>
       </c>
-      <c r="C23" s="9" t="inlineStr">
+      <c r="C23" s="8" t="inlineStr">
         <is>
           <t>Sounni</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n"/>
+      <c r="D23" s="4" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="11" t="n">
+      <c r="A24" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
         <is>
           <t>Serhii</t>
         </is>
       </c>
-      <c r="C24" s="9" t="inlineStr">
+      <c r="C24" s="8" t="inlineStr">
         <is>
           <t>Omelchenko</t>
         </is>
       </c>
-      <c r="D24" s="5" t="n"/>
+      <c r="D24" s="4" t="n"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="11" t="n">
+      <c r="A25" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>Benedek</t>
         </is>
       </c>
-      <c r="C25" s="9" t="inlineStr">
+      <c r="C25" s="8" t="inlineStr">
         <is>
           <t>Buda</t>
         </is>
       </c>
-      <c r="D25" s="5" t="n"/>
+      <c r="D25" s="4" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="11" t="n">
+      <c r="A26" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>Igor</t>
         </is>
       </c>
-      <c r="C26" s="9" t="inlineStr">
+      <c r="C26" s="8" t="inlineStr">
         <is>
           <t>Vladimirov</t>
         </is>
       </c>
-      <c r="D26" s="5" t="n"/>
+      <c r="D26" s="4" t="n"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="11" t="n">
+      <c r="A27" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>Attila</t>
         </is>
       </c>
-      <c r="C27" s="9" t="inlineStr">
+      <c r="C27" s="8" t="inlineStr">
         <is>
           <t>Pintér</t>
         </is>
       </c>
-      <c r="D27" s="5" t="n"/>
+      <c r="D27" s="4" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="11" t="n">
+      <c r="A28" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="9" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>Márton</t>
         </is>
       </c>
-      <c r="C28" s="9" t="inlineStr">
+      <c r="C28" s="8" t="inlineStr">
         <is>
           <t>Gréczi</t>
         </is>
       </c>
-      <c r="D28" s="5" t="n"/>
+      <c r="D28" s="4" t="n"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="11" t="n">
+      <c r="A29" s="10" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="9" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>Dániel</t>
         </is>
       </c>
-      <c r="C29" s="9" t="inlineStr">
+      <c r="C29" s="8" t="inlineStr">
         <is>
           <t>Gubacsi</t>
         </is>
       </c>
-      <c r="D29" s="5" t="n"/>
+      <c r="D29" s="4" t="n"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="11" t="n">
+      <c r="A30" s="10" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>Benjámin</t>
         </is>
       </c>
-      <c r="C30" s="9" t="inlineStr">
+      <c r="C30" s="8" t="inlineStr">
         <is>
           <t>Kovács</t>
         </is>
       </c>
-      <c r="D30" s="5" t="n"/>
+      <c r="D30" s="4" t="n"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="11" t="n">
+      <c r="A31" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="9" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
         <is>
           <t>Kozek</t>
         </is>
       </c>
-      <c r="C31" s="9" t="inlineStr">
+      <c r="C31" s="8" t="inlineStr">
         <is>
           <t>Lél Ágoston</t>
         </is>
       </c>
-      <c r="D31" s="5" t="n"/>
+      <c r="D31" s="4" t="n"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="11" t="n">
+      <c r="A32" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="9" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>Roman</t>
         </is>
       </c>
-      <c r="C32" s="9" t="inlineStr">
+      <c r="C32" s="8" t="inlineStr">
         <is>
           <t>Chaudet</t>
         </is>
       </c>
-      <c r="D32" s="5" t="n"/>
+      <c r="D32" s="4" t="n"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="11" t="n">
+      <c r="A33" s="10" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="9" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
         <is>
           <t>Máté</t>
         </is>
       </c>
-      <c r="C33" s="9" t="inlineStr">
+      <c r="C33" s="8" t="inlineStr">
         <is>
           <t>Takács</t>
         </is>
       </c>
-      <c r="D33" s="5" t="n"/>
+      <c r="D33" s="4" t="n"/>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="11" t="n">
+      <c r="A34" s="10" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>Olivér</t>
         </is>
       </c>
-      <c r="C34" s="9" t="inlineStr">
+      <c r="C34" s="8" t="inlineStr">
         <is>
           <t>Pavela</t>
         </is>
       </c>
-      <c r="D34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="11" t="n">
+      <c r="A35" s="10" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>Róbert</t>
         </is>
       </c>
-      <c r="C35" s="9" t="inlineStr">
+      <c r="C35" s="8" t="inlineStr">
         <is>
           <t>Mátyás</t>
         </is>
       </c>
-      <c r="D35" s="5" t="n"/>
+      <c r="D35" s="4" t="n"/>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="11" t="n">
+      <c r="A36" s="10" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>Ben</t>
         </is>
       </c>
-      <c r="C36" s="9" t="inlineStr">
+      <c r="C36" s="8" t="inlineStr">
         <is>
           <t>Djawid</t>
         </is>
       </c>
-      <c r="D36" s="5" t="n"/>
+      <c r="D36" s="4" t="n"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="11" t="n">
+      <c r="A37" s="10" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="9" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>Dávid</t>
         </is>
       </c>
-      <c r="C37" s="9" t="inlineStr">
+      <c r="C37" s="8" t="inlineStr">
         <is>
           <t>Kozma</t>
         </is>
       </c>
-      <c r="D37" s="5" t="n"/>
+      <c r="D37" s="4" t="n"/>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="11" t="n">
+      <c r="A38" s="10" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="9" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>Dennis</t>
         </is>
       </c>
-      <c r="C38" s="9" t="inlineStr">
+      <c r="C38" s="8" t="inlineStr">
         <is>
           <t>Szekula</t>
         </is>
       </c>
-      <c r="D38" s="5" t="n"/>
+      <c r="D38" s="4" t="n"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="11" t="n">
+      <c r="A39" s="10" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="9" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>Richárd</t>
         </is>
       </c>
-      <c r="C39" s="9" t="inlineStr">
+      <c r="C39" s="8" t="inlineStr">
         <is>
           <t>Patócs</t>
         </is>
       </c>
-      <c r="D39" s="5" t="n"/>
+      <c r="D39" s="4" t="n"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="11" t="n">
+      <c r="A40" s="10" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="9" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
         <is>
           <t>Tamas</t>
         </is>
       </c>
-      <c r="C40" s="9" t="inlineStr">
+      <c r="C40" s="8" t="inlineStr">
         <is>
           <t>Lippner</t>
         </is>
       </c>
-      <c r="D40" s="5" t="n"/>
+      <c r="D40" s="4" t="n"/>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="11" t="n">
+      <c r="A41" s="10" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="9" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
         <is>
           <t>István</t>
         </is>
       </c>
-      <c r="C41" s="9" t="inlineStr">
+      <c r="C41" s="8" t="inlineStr">
         <is>
           <t>Böjti</t>
         </is>
       </c>
-      <c r="D41" s="5" t="n"/>
+      <c r="D41" s="4" t="n"/>
     </row>
     <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="11" t="n">
+      <c r="A42" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="9" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
         <is>
           <t>Nagy</t>
         </is>
       </c>
-      <c r="C42" s="9" t="inlineStr">
+      <c r="C42" s="8" t="inlineStr">
         <is>
           <t>Zoltán</t>
         </is>
       </c>
-      <c r="D42" s="5" t="n"/>
+      <c r="D42" s="4" t="n"/>
     </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="11" t="n">
+      <c r="A43" s="10" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="9" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
         <is>
           <t>Roland</t>
         </is>
       </c>
-      <c r="C43" s="9" t="inlineStr">
+      <c r="C43" s="8" t="inlineStr">
         <is>
           <t>Nagy</t>
         </is>
       </c>
-      <c r="D43" s="5" t="n"/>
+      <c r="D43" s="4" t="n"/>
     </row>
     <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="11" t="n">
+      <c r="A44" s="10" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="9" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
         <is>
           <t>Ákos</t>
         </is>
       </c>
-      <c r="C44" s="9" t="inlineStr">
+      <c r="C44" s="8" t="inlineStr">
         <is>
           <t>János</t>
         </is>
       </c>
-      <c r="D44" s="5" t="n"/>
+      <c r="D44" s="4" t="n"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="11" t="n">
+      <c r="A45" s="10" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="9" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>Sámuel</t>
         </is>
       </c>
-      <c r="C45" s="9" t="inlineStr">
+      <c r="C45" s="8" t="inlineStr">
         <is>
           <t>Galambos</t>
         </is>
       </c>
-      <c r="D45" s="5" t="n"/>
+      <c r="D45" s="4" t="n"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="11" t="n">
+      <c r="A46" s="10" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="9" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>Dávid</t>
         </is>
       </c>
-      <c r="C46" s="9" t="inlineStr">
+      <c r="C46" s="8" t="inlineStr">
         <is>
           <t>Morassi</t>
         </is>
       </c>
-      <c r="D46" s="5" t="n"/>
+      <c r="D46" s="4" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" s="11" t="n">
+      <c r="A47" s="10" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="9" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>Richárd</t>
         </is>
       </c>
-      <c r="C47" s="9" t="inlineStr">
+      <c r="C47" s="8" t="inlineStr">
         <is>
           <t>Bezzegh</t>
         </is>
       </c>
-      <c r="D47" s="5" t="n"/>
+      <c r="D47" s="4" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
-      <c r="A48" s="11" t="n">
+      <c r="A48" s="10" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="9" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>Áron</t>
         </is>
       </c>
-      <c r="C48" s="9" t="inlineStr">
+      <c r="C48" s="8" t="inlineStr">
         <is>
           <t>Takács</t>
         </is>
       </c>
-      <c r="D48" s="5" t="n"/>
+      <c r="D48" s="4" t="n"/>
     </row>
     <row r="49" ht="18.75" customHeight="1">
-      <c r="A49" s="11" t="n">
+      <c r="A49" s="10" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="9" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
         <is>
           <t>Agoston</t>
         </is>
       </c>
-      <c r="C49" s="9" t="inlineStr">
+      <c r="C49" s="8" t="inlineStr">
         <is>
           <t>Berndt</t>
         </is>
       </c>
-      <c r="D49" s="5" t="n"/>
+      <c r="D49" s="4" t="n"/>
     </row>
     <row r="50" ht="18.75" customHeight="1">
-      <c r="A50" s="11" t="n">
+      <c r="A50" s="10" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="9" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
         <is>
           <t>Szabolcs</t>
         </is>
       </c>
-      <c r="C50" s="9" t="inlineStr">
+      <c r="C50" s="8" t="inlineStr">
         <is>
           <t>Dudás</t>
         </is>
       </c>
-      <c r="D50" s="5" t="n"/>
+      <c r="D50" s="4" t="n"/>
     </row>
     <row r="51" ht="18.75" customHeight="1">
-      <c r="A51" s="11" t="n">
+      <c r="A51" s="10" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="9" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>Boulakbech</t>
         </is>
       </c>
-      <c r="C51" s="9" t="inlineStr">
+      <c r="C51" s="8" t="inlineStr">
         <is>
           <t>Riadh</t>
         </is>
       </c>
-      <c r="D51" s="5" t="n"/>
+      <c r="D51" s="4" t="n"/>
     </row>
     <row r="52" ht="18.75" customHeight="1">
-      <c r="A52" s="11" t="n">
+      <c r="A52" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="9" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
         <is>
           <t>Levente</t>
         </is>
       </c>
-      <c r="C52" s="9" t="inlineStr">
+      <c r="C52" s="8" t="inlineStr">
         <is>
           <t>Koppany</t>
         </is>
       </c>
-      <c r="D52" s="5" t="n"/>
+      <c r="D52" s="4" t="n"/>
     </row>
     <row r="53" ht="18.75" customHeight="1">
-      <c r="A53" s="11" t="n">
+      <c r="A53" s="10" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="9" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
         <is>
           <t>Enikő</t>
         </is>
       </c>
-      <c r="C53" s="9" t="inlineStr">
+      <c r="C53" s="8" t="inlineStr">
         <is>
           <t>Paragi</t>
         </is>
       </c>
-      <c r="D53" s="5" t="n"/>
+      <c r="D53" s="4" t="n"/>
     </row>
     <row r="54" ht="18.75" customHeight="1">
-      <c r="A54" s="11" t="n">
+      <c r="A54" s="10" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="9" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>Ákos</t>
         </is>
       </c>
-      <c r="C54" s="9" t="inlineStr">
+      <c r="C54" s="8" t="inlineStr">
         <is>
           <t>Pogasits</t>
         </is>
       </c>
-      <c r="D54" s="5" t="n"/>
+      <c r="D54" s="4" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
-      <c r="A55" s="11" t="n">
+      <c r="A55" s="10" t="n">
         <v>53</v>
       </c>
-      <c r="B55" s="9" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>Dariia</t>
         </is>
       </c>
-      <c r="C55" s="9" t="inlineStr">
+      <c r="C55" s="8" t="inlineStr">
         <is>
           <t>Sataeva</t>
         </is>
       </c>
-      <c r="D55" s="5" t="n"/>
+      <c r="D55" s="4" t="n"/>
     </row>
     <row r="56" ht="18.75" customHeight="1">
-      <c r="A56" s="11" t="n">
+      <c r="A56" s="10" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="9" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>Ronye</t>
         </is>
       </c>
-      <c r="C56" s="9" t="inlineStr">
+      <c r="C56" s="8" t="inlineStr">
         <is>
           <t>Vernaes</t>
         </is>
       </c>
-      <c r="D56" s="5" t="n"/>
+      <c r="D56" s="4" t="n"/>
     </row>
     <row r="57" ht="18.75" customHeight="1">
-      <c r="A57" s="11" t="n">
+      <c r="A57" s="10" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="9" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
         <is>
           <t>Mohay</t>
         </is>
       </c>
-      <c r="C57" s="9" t="inlineStr">
+      <c r="C57" s="8" t="inlineStr">
         <is>
           <t>András</t>
         </is>
       </c>
-      <c r="D57" s="5" t="n"/>
+      <c r="D57" s="4" t="n"/>
     </row>
     <row r="58" ht="18.75" customHeight="1">
-      <c r="A58" s="11" t="n">
+      <c r="A58" s="10" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="12" t="inlineStr">
+      <c r="B58" s="13" t="inlineStr">
         <is>
           <t>Julianna</t>
         </is>
       </c>
-      <c r="C58" s="12" t="inlineStr">
+      <c r="C58" s="13" t="inlineStr">
         <is>
           <t>Poole</t>
         </is>
       </c>
-      <c r="D58" s="5" t="n"/>
+      <c r="D58" s="4" t="n"/>
     </row>
     <row r="59" ht="18.75" customHeight="1">
-      <c r="A59" s="11" t="n">
+      <c r="A59" s="10" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="12" t="inlineStr">
+      <c r="B59" s="13" t="inlineStr">
         <is>
           <t>Quincy</t>
         </is>
       </c>
-      <c r="C59" s="12" t="inlineStr">
+      <c r="C59" s="13" t="inlineStr">
         <is>
           <t>Buck</t>
         </is>
       </c>
-      <c r="D59" s="5" t="n"/>
+      <c r="D59" s="4" t="n"/>
     </row>
     <row r="60" ht="18.75" customHeight="1">
-      <c r="A60" s="11" t="n">
+      <c r="A60" s="10" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="12" t="inlineStr">
+      <c r="B60" s="13" t="inlineStr">
         <is>
           <t>Livia</t>
         </is>
       </c>
-      <c r="C60" s="12" t="inlineStr">
+      <c r="C60" s="13" t="inlineStr">
         <is>
           <t>Levy</t>
         </is>
       </c>
-      <c r="D60" s="5" t="n"/>
+      <c r="D60" s="4" t="n"/>
     </row>
     <row r="61" ht="18.75" customHeight="1">
-      <c r="A61" s="11" t="n">
+      <c r="A61" s="10" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="12" t="inlineStr">
+      <c r="B61" s="13" t="inlineStr">
         <is>
           <t>Harold</t>
         </is>
       </c>
-      <c r="C61" s="12" t="inlineStr">
+      <c r="C61" s="13" t="inlineStr">
         <is>
           <t>Conrad</t>
         </is>
       </c>
-      <c r="D61" s="5" t="n"/>
+      <c r="D61" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1485,7 +1488,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,43 +1496,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
-    <col width="11.14785714285714" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
-    <col width="11.14785714285714" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
+    <col width="11.14785714285714" bestFit="1" customWidth="1" style="12" min="7" max="7"/>
+    <col width="11.14785714285714" bestFit="1" customWidth="1" style="12" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customFormat="1" customHeight="1" s="6">
-      <c r="A1" s="7" t="inlineStr">
+    <row r="1" ht="33" customFormat="1" customHeight="1" s="5">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>White Player</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>White Name</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Black Player</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="8" t="inlineStr">
         <is>
           <t>Black Name</t>
         </is>
@@ -1545,25 +1548,25 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>Máté Morassi</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="10" t="n">
         <v>58</v>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>Livia Levy</t>
         </is>
@@ -1575,777 +1578,787 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="n">
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="10" t="n">
         <v>59</v>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>Harold Conrad</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="E3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Armin Kozek</t>
         </is>
       </c>
-      <c r="G3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="n">
+      <c r="G3" s="11" t="n"/>
+      <c r="H3" s="11" t="n"/>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Szántó Daniel</t>
+        </is>
+      </c>
+      <c r="E4" s="10" t="n">
         <v>50</v>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Levente Koppany</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="G4" s="11" t="n"/>
+      <c r="H4" s="11" t="n"/>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Ben Djawid</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="n">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>Attila Pintér</t>
+        </is>
+      </c>
+      <c r="G5" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>George Hannmer</t>
+        </is>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>Roland Nagy</t>
+        </is>
+      </c>
+      <c r="G6" s="11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="11" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10" t="n">
+        <v>57</v>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>Quincy Buck</t>
+        </is>
+      </c>
+      <c r="E7" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>Martin Dudás</t>
+        </is>
+      </c>
+      <c r="G7" s="11" t="n"/>
+      <c r="H7" s="11" t="n"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Ákos János</t>
+        </is>
+      </c>
+      <c r="E8" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>Ahmed Walid Belhadj</t>
+        </is>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Zoltán Molnár</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="n">
+        <v>48</v>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>Szabolcs Dudás</t>
+        </is>
+      </c>
+      <c r="G9" s="11" t="n"/>
+      <c r="H9" s="11" t="n"/>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>Szántó Daniel</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="n">
+      <c r="C10" s="10" t="n">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>Olivér Pavela</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="n">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>Dániel Gubacsi</t>
+        </is>
+      </c>
+      <c r="G10" s="11" t="n"/>
+      <c r="H10" s="11" t="n"/>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>Boulakbech Riadh</t>
+        </is>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>Levente Toth</t>
+        </is>
+      </c>
+      <c r="G11" s="11" t="n"/>
+      <c r="H11" s="11" t="n"/>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>Róbert Mátyás</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>Márton Gréczi</t>
+        </is>
+      </c>
+      <c r="G12" s="11" t="n"/>
+      <c r="H12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>Attila Pintér</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>Ben Djawid</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="n">
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>Levente Puha</t>
+        </is>
+      </c>
+      <c r="E13" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>Mohay András</t>
+        </is>
+      </c>
+      <c r="G13" s="11" t="n"/>
+      <c r="H13" s="11" t="n"/>
+    </row>
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10" t="n">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>István Böjti</t>
+        </is>
+      </c>
+      <c r="E14" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>Róbert Faragó</t>
+        </is>
+      </c>
+      <c r="G14" s="11" t="n"/>
+      <c r="H14" s="11" t="n"/>
+    </row>
+    <row r="15" ht="19.5" customHeight="1">
+      <c r="A15" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>Bence Juhász</t>
+        </is>
+      </c>
+      <c r="E15" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>Julianna Poole</t>
+        </is>
+      </c>
+      <c r="G15" s="11" t="n"/>
+      <c r="H15" s="11" t="n"/>
+    </row>
+    <row r="16" ht="19.5" customHeight="1">
+      <c r="A16" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>Nagy Zoltán</t>
+        </is>
+      </c>
+      <c r="E16" s="10" t="n">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>Benedek Komlódi</t>
+        </is>
+      </c>
+      <c r="G16" s="11" t="n"/>
+      <c r="H16" s="11" t="n"/>
+    </row>
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>Róbert Horváth</t>
+        </is>
+      </c>
+      <c r="E17" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="F17" s="4" t="inlineStr">
+        <is>
+          <t>Agoston Berndt</t>
+        </is>
+      </c>
+      <c r="G17" s="11" t="n"/>
+      <c r="H17" s="11" t="n"/>
+    </row>
+    <row r="18" ht="19.5" customHeight="1">
+      <c r="A18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>Máté Takács</t>
+        </is>
+      </c>
+      <c r="E18" s="10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>Benjámin Kovács</t>
+        </is>
+      </c>
+      <c r="G18" s="11" t="n"/>
+      <c r="H18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="19.5" customHeight="1">
+      <c r="A19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>Tibor Farkasházi</t>
+        </is>
+      </c>
+      <c r="E19" s="10" t="n">
+        <v>46</v>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>Áron Takács</t>
+        </is>
+      </c>
+      <c r="G19" s="11" t="n"/>
+      <c r="H19" s="11" t="n"/>
+    </row>
+    <row r="20" ht="19.5" customHeight="1">
+      <c r="A20" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>Roman Chaudet</t>
+        </is>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>29</v>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>Kozek Lél Ágoston</t>
+        </is>
+      </c>
+      <c r="G20" s="11" t="n"/>
+      <c r="H20" s="11" t="n"/>
+    </row>
+    <row r="21" ht="19.5" customHeight="1">
+      <c r="A21" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>Bence Matuz</t>
+        </is>
+      </c>
+      <c r="E21" s="10" t="n">
+        <v>53</v>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>Dariia Sataeva</t>
+        </is>
+      </c>
+      <c r="G21" s="11" t="n"/>
+      <c r="H21" s="11" t="n"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>George Hannmer</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>Roland Nagy</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="n"/>
-      <c r="H6" s="5" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="n">
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>Dióssi Csaba</t>
+        </is>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>54</v>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>Ronye Vernaes</t>
+        </is>
+      </c>
+      <c r="G22" s="11" t="n"/>
+      <c r="H22" s="11" t="n"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" s="10" t="n">
+        <v>38</v>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>Tamas Lippner</t>
+        </is>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>Youness Sounni</t>
+        </is>
+      </c>
+      <c r="G23" s="11" t="n"/>
+      <c r="H23" s="11" t="n"/>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Martin Dudás</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>57</v>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Quincy Buck</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
-    </row>
-    <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="n">
+      <c r="C24" s="10" t="n">
+        <v>45</v>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>Richárd Bezzegh</t>
+        </is>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>Akzhan Yeleukolova</t>
+        </is>
+      </c>
+      <c r="G24" s="11" t="n"/>
+      <c r="H24" s="11" t="n"/>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="n">
-        <v>42</v>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>Ákos János</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>Ahmed Walid Belhadj</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="n">
+      <c r="C25" s="10" t="n">
+        <v>51</v>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>Enikő Paragi</t>
+        </is>
+      </c>
+      <c r="E25" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>Dávid Répási</t>
+        </is>
+      </c>
+      <c r="G25" s="11" t="n"/>
+      <c r="H25" s="11" t="n"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" s="10" t="n">
+        <v>52</v>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>Ákos Pogasits</t>
+        </is>
+      </c>
+      <c r="E26" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>Sezgin Rustamov</t>
+        </is>
+      </c>
+      <c r="G26" s="11" t="n"/>
+      <c r="H26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" s="10" t="n">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>Benedek Buda</t>
+        </is>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>36</v>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>Dennis Szekula</t>
+        </is>
+      </c>
+      <c r="G27" s="11" t="n"/>
+      <c r="H27" s="11" t="n"/>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>Serhii Omelchenko</t>
+        </is>
+      </c>
+      <c r="E28" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>Richárd Patócs</t>
+        </is>
+      </c>
+      <c r="G28" s="11" t="n"/>
+      <c r="H28" s="11" t="n"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Zoltán Molnár</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>48</v>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>Szabolcs Dudás</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
-    </row>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>Dániel Gubacsi</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>Olivér Pavela</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="5" t="n"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>Levente Toth</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>49</v>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>Boulakbech Riadh</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
-    </row>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>Márton Gréczi</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>Róbert Mátyás</t>
-        </is>
-      </c>
-      <c r="G12" s="5" t="n"/>
-      <c r="H12" s="5" t="n"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="n">
+      <c r="C29" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>Krisztián Dobos</t>
+        </is>
+      </c>
+      <c r="E29" s="10" t="n">
+        <v>43</v>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>Sámuel Galambos</t>
+        </is>
+      </c>
+      <c r="G29" s="11" t="n"/>
+      <c r="H29" s="11" t="n"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>Levente Puha</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>55</v>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>Mohay András</t>
-        </is>
-      </c>
-      <c r="G13" s="5" t="n"/>
-      <c r="H13" s="5" t="n"/>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="n">
+      <c r="C30" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>András Forgács</t>
+        </is>
+      </c>
+      <c r="E30" s="10" t="n">
+        <v>44</v>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>Dávid Morassi</t>
+        </is>
+      </c>
+      <c r="G30" s="11" t="n"/>
+      <c r="H30" s="11" t="n"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>István Böjti</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>Róbert Faragó</t>
-        </is>
-      </c>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="5" t="n"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>56</v>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>Julianna Poole</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>Bence Juhász</t>
-        </is>
-      </c>
-      <c r="G15" s="5" t="n"/>
-      <c r="H15" s="5" t="n"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>Nagy Zoltán</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>Benedek Komlódi</t>
-        </is>
-      </c>
-      <c r="G16" s="5" t="n"/>
-      <c r="H16" s="5" t="n"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>Agoston Berndt</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>Róbert Horváth</t>
-        </is>
-      </c>
-      <c r="G17" s="5" t="n"/>
-      <c r="H17" s="5" t="n"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>Benjámin Kovács</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>31</v>
-      </c>
-      <c r="F18" s="5" t="inlineStr">
-        <is>
-          <t>Máté Takács</t>
-        </is>
-      </c>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <v>46</v>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>Áron Takács</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>Tibor Farkasházi</t>
-        </is>
-      </c>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>Kozek Lél Ágoston</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>Roman Chaudet</t>
-        </is>
-      </c>
-      <c r="G20" s="5" t="n"/>
-      <c r="H20" s="5" t="n"/>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>53</v>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>Dariia Sataeva</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>Bence Matuz</t>
-        </is>
-      </c>
-      <c r="G21" s="5" t="n"/>
-      <c r="H21" s="5" t="n"/>
-    </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" s="3" t="n">
-        <v>54</v>
-      </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>Ronye Vernaes</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" s="5" t="inlineStr">
-        <is>
-          <t>Dióssi Csaba</t>
-        </is>
-      </c>
-      <c r="G22" s="5" t="n"/>
-      <c r="H22" s="5" t="n"/>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D23" s="5" t="inlineStr">
-        <is>
-          <t>Tamas Lippner</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="F23" s="5" t="inlineStr">
-        <is>
-          <t>Youness Sounni</t>
-        </is>
-      </c>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3" t="n">
-        <v>45</v>
-      </c>
-      <c r="D24" s="5" t="inlineStr">
-        <is>
-          <t>Richárd Bezzegh</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="F24" s="5" t="inlineStr">
-        <is>
-          <t>Akzhan Yeleukolova</t>
-        </is>
-      </c>
-      <c r="G24" s="5" t="n"/>
-      <c r="H24" s="5" t="n"/>
-    </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3" t="n">
+      <c r="C31" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="C25" s="3" t="n">
-        <v>51</v>
-      </c>
-      <c r="D25" s="5" t="inlineStr">
-        <is>
-          <t>Enikő Paragi</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="F25" s="5" t="inlineStr">
-        <is>
-          <t>Dávid Répási</t>
-        </is>
-      </c>
-      <c r="G25" s="5" t="n"/>
-      <c r="H25" s="5" t="n"/>
-    </row>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3" t="n">
-        <v>52</v>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>Ákos Pogasits</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>Sezgin Rustamov</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="n"/>
-      <c r="H26" s="5" t="n"/>
-    </row>
-    <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
-        <is>
-          <t>Benedek Buda</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="n">
-        <v>36</v>
-      </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>Dennis Szekula</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="n"/>
-      <c r="H27" s="5" t="n"/>
-    </row>
-    <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" s="3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>Richárd Patócs</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>Serhii Omelchenko</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="n"/>
-      <c r="H28" s="5" t="n"/>
-    </row>
-    <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>Sámuel Galambos</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="F29" s="5" t="inlineStr">
-        <is>
-          <t>Krisztián Dobos</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="n"/>
-      <c r="H29" s="5" t="n"/>
-    </row>
-    <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3" t="n">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>András Forgács</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="n">
-        <v>44</v>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>Dávid Morassi</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="n"/>
-      <c r="H30" s="5" t="n"/>
-    </row>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>Igor Vladimirov</t>
         </is>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" s="10" t="n">
         <v>35</v>
       </c>
-      <c r="F31" s="5" t="inlineStr">
+      <c r="F31" s="4" t="inlineStr">
         <is>
           <t>Dávid Kozma</t>
         </is>
       </c>
-      <c r="G31" s="5" t="n"/>
-      <c r="H31" s="5" t="n"/>
+      <c r="G31" s="11" t="n"/>
+      <c r="H31" s="11" t="n"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>2</v>
       </c>
-      <c r="B32" t="n">
-        <v>31</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Armin Kozek</t>
+          <t>Ahmed Walid Belhadj</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -2361,23 +2374,77 @@
       <c r="A33" t="n">
         <v>2</v>
       </c>
-      <c r="B33" t="n">
-        <v>32</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
       <c r="C33" t="n">
+        <v>25</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Attila Pintér</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>18</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>George Hannmer</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>58</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Livia Levy</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>59</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Harold Conrad</t>
+      <c r="E34" t="n">
+        <v>42</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Ákos János</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>41</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Roland Nagy</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>34</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Ben Djawid</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2505,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Armin Kozek</t>
+          <t>Máté Morassi</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2460,7 +2527,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Máté Morassi</t>
+          <t>Ahmed Walid Belhadj</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2482,14 +2549,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Livia Levy</t>
+          <t>George Hannmer</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2504,14 +2571,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Harold Conrad</t>
+          <t>Attila Pintér</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2526,14 +2593,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Martin Dudás</t>
+          <t>Ben Djawid</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2548,14 +2615,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bence Juhász</t>
+          <t>Roland Nagy</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2570,14 +2637,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Levente Puha</t>
+          <t>Ákos János</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -2592,14 +2659,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dióssi Csaba</t>
+          <t>Livia Levy</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2614,7 +2681,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bence Matuz</t>
+          <t>Armin Kozek</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -2636,7 +2703,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sezgin Rustamov</t>
+          <t>Martin Dudás</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -2658,7 +2725,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dávid Répási</t>
+          <t>Bence Juhász</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -2680,7 +2747,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Szántó Daniel</t>
+          <t>Levente Puha</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -2702,7 +2769,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Levente Toth</t>
+          <t>Dióssi Csaba</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -2724,7 +2791,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Zoltán Molnár</t>
+          <t>Bence Matuz</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -2746,7 +2813,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Róbert Horváth</t>
+          <t>Sezgin Rustamov</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -2768,7 +2835,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tibor Farkasházi</t>
+          <t>Dávid Répási</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -2790,7 +2857,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Akzhan Yeleukolova</t>
+          <t>Szántó Daniel</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2812,7 +2879,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>András Forgács</t>
+          <t>Levente Toth</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2834,7 +2901,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Krisztián Dobos</t>
+          <t>Zoltán Molnár</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2856,7 +2923,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ahmed Walid Belhadj</t>
+          <t>Róbert Horváth</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2878,7 +2945,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>George Hannmer</t>
+          <t>Tibor Farkasházi</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2900,7 +2967,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Benedek Komlódi</t>
+          <t>Akzhan Yeleukolova</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2922,7 +2989,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Róbert Faragó</t>
+          <t>András Forgács</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2944,7 +3011,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Youness Sounni</t>
+          <t>Krisztián Dobos</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2966,7 +3033,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Serhii Omelchenko</t>
+          <t>Benedek Komlódi</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2988,7 +3055,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Benedek Buda</t>
+          <t>Róbert Faragó</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3010,7 +3077,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Igor Vladimirov</t>
+          <t>Youness Sounni</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3032,7 +3099,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Attila Pintér</t>
+          <t>Serhii Omelchenko</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3054,7 +3121,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Márton Gréczi</t>
+          <t>Benedek Buda</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3076,7 +3143,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dániel Gubacsi</t>
+          <t>Igor Vladimirov</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3098,7 +3165,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Benjámin Kovács</t>
+          <t>Márton Gréczi</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3120,7 +3187,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Kozek Lél Ágoston</t>
+          <t>Dániel Gubacsi</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3142,7 +3209,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Roman Chaudet</t>
+          <t>Benjámin Kovács</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3164,7 +3231,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Máté Takács</t>
+          <t>Kozek Lél Ágoston</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3186,7 +3253,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Olivér Pavela</t>
+          <t>Roman Chaudet</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3208,7 +3275,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Róbert Mátyás</t>
+          <t>Máté Takács</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3230,7 +3297,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ben Djawid</t>
+          <t>Olivér Pavela</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3252,7 +3319,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Dávid Kozma</t>
+          <t>Róbert Mátyás</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3274,7 +3341,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Dennis Szekula</t>
+          <t>Dávid Kozma</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3296,7 +3363,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Richárd Patócs</t>
+          <t>Dennis Szekula</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -3318,7 +3385,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tamas Lippner</t>
+          <t>Richárd Patócs</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -3340,7 +3407,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>István Böjti</t>
+          <t>Tamas Lippner</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -3362,7 +3429,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nagy Zoltán</t>
+          <t>István Böjti</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -3384,7 +3451,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Roland Nagy</t>
+          <t>Nagy Zoltán</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -3406,7 +3473,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ákos János</t>
+          <t>Sámuel Galambos</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -3428,7 +3495,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sámuel Galambos</t>
+          <t>Dávid Morassi</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -3450,7 +3517,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Dávid Morassi</t>
+          <t>Richárd Bezzegh</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -3472,7 +3539,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Richárd Bezzegh</t>
+          <t>Áron Takács</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -3494,7 +3561,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Áron Takács</t>
+          <t>Agoston Berndt</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -3516,7 +3583,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Agoston Berndt</t>
+          <t>Szabolcs Dudás</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -3538,7 +3605,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Szabolcs Dudás</t>
+          <t>Boulakbech Riadh</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -3560,7 +3627,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Boulakbech Riadh</t>
+          <t>Levente Koppany</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -3582,7 +3649,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Levente Koppany</t>
+          <t>Enikő Paragi</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -3604,7 +3671,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Enikő Paragi</t>
+          <t>Ákos Pogasits</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -3626,7 +3693,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ákos Pogasits</t>
+          <t>Dariia Sataeva</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -3648,7 +3715,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Dariia Sataeva</t>
+          <t>Ronye Vernaes</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -3670,7 +3737,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ronye Vernaes</t>
+          <t>Mohay András</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -3692,7 +3759,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mohay András</t>
+          <t>Julianna Poole</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -3714,7 +3781,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Julianna Poole</t>
+          <t>Quincy Buck</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -3736,7 +3803,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Quincy Buck</t>
+          <t>Harold Conrad</t>
         </is>
       </c>
       <c r="C61" t="n">

--- a/tournament.xlsx
+++ b/tournament.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Attendees" sheetId="1" state="visible" r:id="rId1"/>
@@ -29,6 +29,12 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
@@ -37,12 +43,6 @@
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,12 +53,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -70,10 +85,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -81,36 +102,18 @@
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -481,1001 +484,1017 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="33.57642857142857" bestFit="1" customWidth="1" style="14" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="14" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="33.57642857142857" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="10" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="8" t="inlineStr">
         <is>
           <t>Full Name</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
+      <c r="A2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>Armin</t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
+      <c r="C2" s="7" t="inlineStr">
         <is>
           <t>Kozek</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n"/>
+      <c r="D2" s="8" t="n"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>Máté</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="7" t="inlineStr">
         <is>
           <t>Morassi</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n"/>
+      <c r="D3" s="8" t="n"/>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>Martin</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>Dudás</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n"/>
+      <c r="D4" s="8" t="n"/>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="inlineStr">
+      <c r="B5" s="7" t="inlineStr">
         <is>
           <t>Bence</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>Juhász</t>
         </is>
       </c>
-      <c r="D5" s="4" t="n"/>
+      <c r="D5" s="8" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="10" t="n">
+      <c r="A6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>Levente</t>
         </is>
       </c>
-      <c r="C6" s="8" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>Puha</t>
         </is>
       </c>
-      <c r="D6" s="4" t="n"/>
+      <c r="D6" s="8" t="n"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="10" t="n">
+      <c r="A7" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B7" s="7" t="inlineStr">
         <is>
           <t>Dióssi</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>Csaba</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n"/>
+      <c r="D7" s="8" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="10" t="n">
+      <c r="A8" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="inlineStr">
+      <c r="B8" s="7" t="inlineStr">
         <is>
           <t>Bence</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr">
         <is>
           <t>Matuz</t>
         </is>
       </c>
-      <c r="D8" s="4" t="n"/>
+      <c r="D8" s="8" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="10" t="n">
+      <c r="A9" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
         <is>
           <t>Sezgin</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="7" t="inlineStr">
         <is>
           <t>Rustamov</t>
         </is>
       </c>
-      <c r="D9" s="4" t="n"/>
+      <c r="D9" s="8" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="10" t="n">
+      <c r="A10" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>Dávid</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
+      <c r="C10" s="7" t="inlineStr">
         <is>
           <t>Répási</t>
         </is>
       </c>
-      <c r="D10" s="4" t="n"/>
+      <c r="D10" s="8" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="10" t="n">
+      <c r="A11" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Szántó</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>Daniel</t>
         </is>
       </c>
-      <c r="D11" s="4" t="n"/>
+      <c r="D11" s="8" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="10" t="n">
+      <c r="A12" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="inlineStr">
+      <c r="B12" s="7" t="inlineStr">
         <is>
           <t>Levente</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>Toth</t>
         </is>
       </c>
-      <c r="D12" s="4" t="n"/>
+      <c r="D12" s="8" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="10" t="n">
+      <c r="A13" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="inlineStr">
+      <c r="B13" s="7" t="inlineStr">
         <is>
           <t>Zoltán</t>
         </is>
       </c>
-      <c r="C13" s="8" t="inlineStr">
+      <c r="C13" s="7" t="inlineStr">
         <is>
           <t>Molnár</t>
         </is>
       </c>
-      <c r="D13" s="4" t="n"/>
+      <c r="D13" s="8" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="10" t="n">
+      <c r="A14" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="B14" s="7" t="inlineStr">
         <is>
           <t>Róbert</t>
         </is>
       </c>
-      <c r="C14" s="8" t="inlineStr">
+      <c r="C14" s="7" t="inlineStr">
         <is>
           <t>Horváth</t>
         </is>
       </c>
-      <c r="D14" s="4" t="n"/>
+      <c r="D14" s="8" t="n"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="10" t="n">
+      <c r="A15" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="B15" s="7" t="inlineStr">
         <is>
           <t>Tibor</t>
         </is>
       </c>
-      <c r="C15" s="8" t="inlineStr">
+      <c r="C15" s="7" t="inlineStr">
         <is>
           <t>Farkasházi</t>
         </is>
       </c>
-      <c r="D15" s="4" t="n"/>
+      <c r="D15" s="8" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="10" t="n">
+      <c r="A16" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>Akzhan</t>
         </is>
       </c>
-      <c r="C16" s="8" t="inlineStr">
+      <c r="C16" s="7" t="inlineStr">
         <is>
           <t>Yeleukolova</t>
         </is>
       </c>
-      <c r="D16" s="4" t="n"/>
+      <c r="D16" s="8" t="n"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="10" t="n">
+      <c r="A17" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B17" s="7" t="inlineStr">
         <is>
           <t>András</t>
         </is>
       </c>
-      <c r="C17" s="8" t="inlineStr">
+      <c r="C17" s="7" t="inlineStr">
         <is>
           <t>Forgács</t>
         </is>
       </c>
-      <c r="D17" s="4" t="n"/>
+      <c r="D17" s="8" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="10" t="n">
+      <c r="A18" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B18" s="7" t="inlineStr">
         <is>
           <t>Krisztián</t>
         </is>
       </c>
-      <c r="C18" s="8" t="inlineStr">
+      <c r="C18" s="7" t="inlineStr">
         <is>
           <t>Dobos</t>
         </is>
       </c>
-      <c r="D18" s="4" t="n"/>
+      <c r="D18" s="8" t="n"/>
     </row>
     <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="10" t="n">
+      <c r="A19" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B19" s="7" t="inlineStr">
         <is>
           <t>Ahmed Walid</t>
         </is>
       </c>
-      <c r="C19" s="8" t="inlineStr">
+      <c r="C19" s="7" t="inlineStr">
         <is>
           <t>Belhadj</t>
         </is>
       </c>
-      <c r="D19" s="4" t="n"/>
+      <c r="D19" s="8" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="10" t="n">
+      <c r="A20" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
         <is>
           <t>George</t>
         </is>
       </c>
-      <c r="C20" s="8" t="inlineStr">
+      <c r="C20" s="7" t="inlineStr">
         <is>
           <t>Hannmer</t>
         </is>
       </c>
-      <c r="D20" s="4" t="n"/>
+      <c r="D20" s="8" t="n"/>
     </row>
     <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" s="10" t="n">
+      <c r="A21" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B21" s="7" t="inlineStr">
         <is>
           <t>Benedek</t>
         </is>
       </c>
-      <c r="C21" s="8" t="inlineStr">
+      <c r="C21" s="7" t="inlineStr">
         <is>
           <t>Komlódi</t>
         </is>
       </c>
-      <c r="D21" s="4" t="n"/>
+      <c r="D21" s="8" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="10" t="n">
+      <c r="A22" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B22" s="7" t="inlineStr">
         <is>
           <t>Róbert</t>
         </is>
       </c>
-      <c r="C22" s="8" t="inlineStr">
+      <c r="C22" s="7" t="inlineStr">
         <is>
           <t>Faragó</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n"/>
+      <c r="D22" s="8" t="n"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="10" t="n">
+      <c r="A23" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="inlineStr">
+      <c r="B23" s="7" t="inlineStr">
         <is>
           <t>Youness</t>
         </is>
       </c>
-      <c r="C23" s="8" t="inlineStr">
+      <c r="C23" s="7" t="inlineStr">
         <is>
           <t>Sounni</t>
         </is>
       </c>
-      <c r="D23" s="4" t="n"/>
+      <c r="D23" s="8" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="10" t="n">
+      <c r="A24" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B24" s="7" t="inlineStr">
         <is>
           <t>Serhii</t>
         </is>
       </c>
-      <c r="C24" s="8" t="inlineStr">
+      <c r="C24" s="7" t="inlineStr">
         <is>
           <t>Omelchenko</t>
         </is>
       </c>
-      <c r="D24" s="4" t="n"/>
+      <c r="D24" s="8" t="n"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="10" t="n">
+      <c r="A25" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B25" s="7" t="inlineStr">
         <is>
           <t>Benedek</t>
         </is>
       </c>
-      <c r="C25" s="8" t="inlineStr">
+      <c r="C25" s="7" t="inlineStr">
         <is>
           <t>Buda</t>
         </is>
       </c>
-      <c r="D25" s="4" t="n"/>
+      <c r="D25" s="8" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="10" t="n">
+      <c r="A26" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B26" s="7" t="inlineStr">
         <is>
           <t>Igor</t>
         </is>
       </c>
-      <c r="C26" s="8" t="inlineStr">
+      <c r="C26" s="7" t="inlineStr">
         <is>
           <t>Vladimirov</t>
         </is>
       </c>
-      <c r="D26" s="4" t="n"/>
+      <c r="D26" s="8" t="n"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="10" t="n">
+      <c r="A27" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="inlineStr">
+      <c r="B27" s="7" t="inlineStr">
         <is>
           <t>Attila</t>
         </is>
       </c>
-      <c r="C27" s="8" t="inlineStr">
+      <c r="C27" s="7" t="inlineStr">
         <is>
           <t>Pintér</t>
         </is>
       </c>
-      <c r="D27" s="4" t="n"/>
+      <c r="D27" s="8" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="10" t="n">
+      <c r="A28" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B28" s="7" t="inlineStr">
         <is>
           <t>Márton</t>
         </is>
       </c>
-      <c r="C28" s="8" t="inlineStr">
+      <c r="C28" s="7" t="inlineStr">
         <is>
           <t>Gréczi</t>
         </is>
       </c>
-      <c r="D28" s="4" t="n"/>
+      <c r="D28" s="8" t="n"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="10" t="n">
+      <c r="A29" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="inlineStr">
+      <c r="B29" s="7" t="inlineStr">
         <is>
           <t>Dániel</t>
         </is>
       </c>
-      <c r="C29" s="8" t="inlineStr">
+      <c r="C29" s="7" t="inlineStr">
         <is>
           <t>Gubacsi</t>
         </is>
       </c>
-      <c r="D29" s="4" t="n"/>
+      <c r="D29" s="8" t="n"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="10" t="n">
+      <c r="A30" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="8" t="inlineStr">
+      <c r="B30" s="7" t="inlineStr">
         <is>
           <t>Benjámin</t>
         </is>
       </c>
-      <c r="C30" s="8" t="inlineStr">
+      <c r="C30" s="7" t="inlineStr">
         <is>
           <t>Kovács</t>
         </is>
       </c>
-      <c r="D30" s="4" t="n"/>
+      <c r="D30" s="8" t="n"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="10" t="n">
+      <c r="A31" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="8" t="inlineStr">
+      <c r="B31" s="7" t="inlineStr">
         <is>
           <t>Kozek</t>
         </is>
       </c>
-      <c r="C31" s="8" t="inlineStr">
+      <c r="C31" s="7" t="inlineStr">
         <is>
           <t>Lél Ágoston</t>
         </is>
       </c>
-      <c r="D31" s="4" t="n"/>
+      <c r="D31" s="8" t="n"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="10" t="n">
+      <c r="A32" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="8" t="inlineStr">
+      <c r="B32" s="7" t="inlineStr">
         <is>
           <t>Roman</t>
         </is>
       </c>
-      <c r="C32" s="8" t="inlineStr">
+      <c r="C32" s="7" t="inlineStr">
         <is>
           <t>Chaudet</t>
         </is>
       </c>
-      <c r="D32" s="4" t="n"/>
+      <c r="D32" s="8" t="n"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="10" t="n">
+      <c r="A33" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="8" t="inlineStr">
+      <c r="B33" s="7" t="inlineStr">
         <is>
           <t>Máté</t>
         </is>
       </c>
-      <c r="C33" s="8" t="inlineStr">
+      <c r="C33" s="7" t="inlineStr">
         <is>
           <t>Takács</t>
         </is>
       </c>
-      <c r="D33" s="4" t="n"/>
+      <c r="D33" s="8" t="n"/>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="10" t="n">
+      <c r="A34" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B34" s="7" t="inlineStr">
         <is>
           <t>Olivér</t>
         </is>
       </c>
-      <c r="C34" s="8" t="inlineStr">
+      <c r="C34" s="7" t="inlineStr">
         <is>
           <t>Pavela</t>
         </is>
       </c>
-      <c r="D34" s="4" t="n"/>
+      <c r="D34" s="8" t="n"/>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="10" t="n">
+      <c r="A35" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="B35" s="8" t="inlineStr">
+      <c r="B35" s="7" t="inlineStr">
         <is>
           <t>Róbert</t>
         </is>
       </c>
-      <c r="C35" s="8" t="inlineStr">
+      <c r="C35" s="7" t="inlineStr">
         <is>
           <t>Mátyás</t>
         </is>
       </c>
-      <c r="D35" s="4" t="n"/>
+      <c r="D35" s="8" t="n"/>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="10" t="n">
+      <c r="A36" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B36" s="8" t="inlineStr">
+      <c r="B36" s="7" t="inlineStr">
         <is>
           <t>Ben</t>
         </is>
       </c>
-      <c r="C36" s="8" t="inlineStr">
+      <c r="C36" s="7" t="inlineStr">
         <is>
           <t>Djawid</t>
         </is>
       </c>
-      <c r="D36" s="4" t="n"/>
+      <c r="D36" s="8" t="n"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="10" t="n">
+      <c r="A37" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B37" s="8" t="inlineStr">
+      <c r="B37" s="7" t="inlineStr">
         <is>
           <t>Dávid</t>
         </is>
       </c>
-      <c r="C37" s="8" t="inlineStr">
+      <c r="C37" s="7" t="inlineStr">
         <is>
           <t>Kozma</t>
         </is>
       </c>
-      <c r="D37" s="4" t="n"/>
-    </row>
-    <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="10" t="n">
+      <c r="D37" s="8" t="n"/>
+    </row>
+    <row r="38" ht="19.5" customHeight="1">
+      <c r="A38" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="B38" s="8" t="inlineStr">
+      <c r="B38" s="7" t="inlineStr">
         <is>
           <t>Dennis</t>
         </is>
       </c>
-      <c r="C38" s="8" t="inlineStr">
+      <c r="C38" s="7" t="inlineStr">
         <is>
           <t>Szekula</t>
         </is>
       </c>
-      <c r="D38" s="4" t="n"/>
-    </row>
-    <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="10" t="n">
+      <c r="D38" s="8" t="n"/>
+    </row>
+    <row r="39" ht="19.5" customHeight="1">
+      <c r="A39" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="B39" s="8" t="inlineStr">
+      <c r="B39" s="7" t="inlineStr">
         <is>
           <t>Richárd</t>
         </is>
       </c>
-      <c r="C39" s="8" t="inlineStr">
+      <c r="C39" s="7" t="inlineStr">
         <is>
           <t>Patócs</t>
         </is>
       </c>
-      <c r="D39" s="4" t="n"/>
-    </row>
-    <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="10" t="n">
+      <c r="D39" s="8" t="n"/>
+    </row>
+    <row r="40" ht="19.5" customHeight="1">
+      <c r="A40" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="B40" s="8" t="inlineStr">
+      <c r="B40" s="7" t="inlineStr">
         <is>
           <t>Tamas</t>
         </is>
       </c>
-      <c r="C40" s="8" t="inlineStr">
+      <c r="C40" s="7" t="inlineStr">
         <is>
           <t>Lippner</t>
         </is>
       </c>
-      <c r="D40" s="4" t="n"/>
-    </row>
-    <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="10" t="n">
+      <c r="D40" s="8" t="n"/>
+    </row>
+    <row r="41" ht="19.5" customHeight="1">
+      <c r="A41" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="B41" s="8" t="inlineStr">
+      <c r="B41" s="7" t="inlineStr">
         <is>
           <t>István</t>
         </is>
       </c>
-      <c r="C41" s="8" t="inlineStr">
+      <c r="C41" s="7" t="inlineStr">
         <is>
           <t>Böjti</t>
         </is>
       </c>
-      <c r="D41" s="4" t="n"/>
-    </row>
-    <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="10" t="n">
+      <c r="D41" s="8" t="n"/>
+    </row>
+    <row r="42" ht="19.5" customHeight="1">
+      <c r="A42" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B42" s="8" t="inlineStr">
+      <c r="B42" s="7" t="inlineStr">
         <is>
           <t>Nagy</t>
         </is>
       </c>
-      <c r="C42" s="8" t="inlineStr">
+      <c r="C42" s="7" t="inlineStr">
         <is>
           <t>Zoltán</t>
         </is>
       </c>
-      <c r="D42" s="4" t="n"/>
-    </row>
-    <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="10" t="n">
+      <c r="D42" s="8" t="n"/>
+    </row>
+    <row r="43" ht="19.5" customHeight="1">
+      <c r="A43" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="B43" s="8" t="inlineStr">
+      <c r="B43" s="7" t="inlineStr">
         <is>
           <t>Roland</t>
         </is>
       </c>
-      <c r="C43" s="8" t="inlineStr">
+      <c r="C43" s="7" t="inlineStr">
         <is>
           <t>Nagy</t>
         </is>
       </c>
-      <c r="D43" s="4" t="n"/>
-    </row>
-    <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="10" t="n">
+      <c r="D43" s="8" t="n"/>
+    </row>
+    <row r="44" ht="19.5" customHeight="1">
+      <c r="A44" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="B44" s="8" t="inlineStr">
+      <c r="B44" s="7" t="inlineStr">
         <is>
           <t>Ákos</t>
         </is>
       </c>
-      <c r="C44" s="8" t="inlineStr">
+      <c r="C44" s="7" t="inlineStr">
         <is>
           <t>János</t>
         </is>
       </c>
-      <c r="D44" s="4" t="n"/>
-    </row>
-    <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="10" t="n">
+      <c r="D44" s="8" t="n"/>
+    </row>
+    <row r="45" ht="19.5" customHeight="1">
+      <c r="A45" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="8" t="inlineStr">
+      <c r="B45" s="7" t="inlineStr">
         <is>
           <t>Sámuel</t>
         </is>
       </c>
-      <c r="C45" s="8" t="inlineStr">
+      <c r="C45" s="7" t="inlineStr">
         <is>
           <t>Galambos</t>
         </is>
       </c>
-      <c r="D45" s="4" t="n"/>
-    </row>
-    <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="10" t="n">
+      <c r="D45" s="8" t="n"/>
+    </row>
+    <row r="46" ht="19.5" customHeight="1">
+      <c r="A46" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="B46" s="8" t="inlineStr">
+      <c r="B46" s="7" t="inlineStr">
         <is>
           <t>Dávid</t>
         </is>
       </c>
-      <c r="C46" s="8" t="inlineStr">
+      <c r="C46" s="7" t="inlineStr">
         <is>
           <t>Morassi</t>
         </is>
       </c>
-      <c r="D46" s="4" t="n"/>
-    </row>
-    <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" s="10" t="n">
+      <c r="D46" s="8" t="n"/>
+    </row>
+    <row r="47" ht="19.5" customHeight="1">
+      <c r="A47" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="B47" s="8" t="inlineStr">
+      <c r="B47" s="7" t="inlineStr">
         <is>
           <t>Richárd</t>
         </is>
       </c>
-      <c r="C47" s="8" t="inlineStr">
+      <c r="C47" s="7" t="inlineStr">
         <is>
           <t>Bezzegh</t>
         </is>
       </c>
-      <c r="D47" s="4" t="n"/>
-    </row>
-    <row r="48" ht="18.75" customHeight="1">
-      <c r="A48" s="10" t="n">
+      <c r="D47" s="8" t="n"/>
+    </row>
+    <row r="48" ht="19.5" customHeight="1">
+      <c r="A48" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B48" s="7" t="inlineStr">
         <is>
           <t>Áron</t>
         </is>
       </c>
-      <c r="C48" s="8" t="inlineStr">
+      <c r="C48" s="7" t="inlineStr">
         <is>
           <t>Takács</t>
         </is>
       </c>
-      <c r="D48" s="4" t="n"/>
-    </row>
-    <row r="49" ht="18.75" customHeight="1">
-      <c r="A49" s="10" t="n">
+      <c r="D48" s="8" t="n"/>
+    </row>
+    <row r="49" ht="19.5" customHeight="1">
+      <c r="A49" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="B49" s="8" t="inlineStr">
+      <c r="B49" s="7" t="inlineStr">
         <is>
           <t>Agoston</t>
         </is>
       </c>
-      <c r="C49" s="8" t="inlineStr">
+      <c r="C49" s="7" t="inlineStr">
         <is>
           <t>Berndt</t>
         </is>
       </c>
-      <c r="D49" s="4" t="n"/>
-    </row>
-    <row r="50" ht="18.75" customHeight="1">
-      <c r="A50" s="10" t="n">
+      <c r="D49" s="8" t="n"/>
+    </row>
+    <row r="50" ht="19.5" customHeight="1">
+      <c r="A50" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="B50" s="8" t="inlineStr">
+      <c r="B50" s="7" t="inlineStr">
         <is>
           <t>Szabolcs</t>
         </is>
       </c>
-      <c r="C50" s="8" t="inlineStr">
+      <c r="C50" s="7" t="inlineStr">
         <is>
           <t>Dudás</t>
         </is>
       </c>
-      <c r="D50" s="4" t="n"/>
-    </row>
-    <row r="51" ht="18.75" customHeight="1">
-      <c r="A51" s="10" t="n">
+      <c r="D50" s="8" t="n"/>
+    </row>
+    <row r="51" ht="19.5" customHeight="1">
+      <c r="A51" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="B51" s="8" t="inlineStr">
+      <c r="B51" s="7" t="inlineStr">
         <is>
           <t>Boulakbech</t>
         </is>
       </c>
-      <c r="C51" s="8" t="inlineStr">
+      <c r="C51" s="7" t="inlineStr">
         <is>
           <t>Riadh</t>
         </is>
       </c>
-      <c r="D51" s="4" t="n"/>
-    </row>
-    <row r="52" ht="18.75" customHeight="1">
-      <c r="A52" s="10" t="n">
+      <c r="D51" s="8" t="n"/>
+    </row>
+    <row r="52" ht="19.5" customHeight="1">
+      <c r="A52" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="B52" s="8" t="inlineStr">
+      <c r="B52" s="7" t="inlineStr">
         <is>
           <t>Levente</t>
         </is>
       </c>
-      <c r="C52" s="8" t="inlineStr">
+      <c r="C52" s="7" t="inlineStr">
         <is>
           <t>Koppany</t>
         </is>
       </c>
-      <c r="D52" s="4" t="n"/>
-    </row>
-    <row r="53" ht="18.75" customHeight="1">
-      <c r="A53" s="10" t="n">
+      <c r="D52" s="8" t="n"/>
+    </row>
+    <row r="53" ht="19.5" customHeight="1">
+      <c r="A53" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="B53" s="8" t="inlineStr">
+      <c r="B53" s="7" t="inlineStr">
         <is>
           <t>Enikő</t>
         </is>
       </c>
-      <c r="C53" s="8" t="inlineStr">
+      <c r="C53" s="7" t="inlineStr">
         <is>
           <t>Paragi</t>
         </is>
       </c>
-      <c r="D53" s="4" t="n"/>
-    </row>
-    <row r="54" ht="18.75" customHeight="1">
-      <c r="A54" s="10" t="n">
+      <c r="D53" s="8" t="n"/>
+    </row>
+    <row r="54" ht="19.5" customHeight="1">
+      <c r="A54" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="B54" s="8" t="inlineStr">
+      <c r="B54" s="7" t="inlineStr">
         <is>
           <t>Ákos</t>
         </is>
       </c>
-      <c r="C54" s="8" t="inlineStr">
+      <c r="C54" s="7" t="inlineStr">
         <is>
           <t>Pogasits</t>
         </is>
       </c>
-      <c r="D54" s="4" t="n"/>
-    </row>
-    <row r="55" ht="18.75" customHeight="1">
-      <c r="A55" s="10" t="n">
+      <c r="D54" s="8" t="n"/>
+    </row>
+    <row r="55" ht="19.5" customHeight="1">
+      <c r="A55" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B55" s="8" t="inlineStr">
+      <c r="B55" s="7" t="inlineStr">
         <is>
           <t>Dariia</t>
         </is>
       </c>
-      <c r="C55" s="8" t="inlineStr">
+      <c r="C55" s="7" t="inlineStr">
         <is>
           <t>Sataeva</t>
         </is>
       </c>
-      <c r="D55" s="4" t="n"/>
-    </row>
-    <row r="56" ht="18.75" customHeight="1">
-      <c r="A56" s="10" t="n">
+      <c r="D55" s="8" t="n"/>
+    </row>
+    <row r="56" ht="19.5" customHeight="1">
+      <c r="A56" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="B56" s="8" t="inlineStr">
+      <c r="B56" s="7" t="inlineStr">
         <is>
           <t>Ronye</t>
         </is>
       </c>
-      <c r="C56" s="8" t="inlineStr">
+      <c r="C56" s="7" t="inlineStr">
         <is>
           <t>Vernaes</t>
         </is>
       </c>
-      <c r="D56" s="4" t="n"/>
-    </row>
-    <row r="57" ht="18.75" customHeight="1">
-      <c r="A57" s="10" t="n">
+      <c r="D56" s="8" t="n"/>
+    </row>
+    <row r="57" ht="19.5" customHeight="1">
+      <c r="A57" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B57" s="7" t="inlineStr">
         <is>
           <t>Mohay</t>
         </is>
       </c>
-      <c r="C57" s="8" t="inlineStr">
+      <c r="C57" s="7" t="inlineStr">
         <is>
           <t>András</t>
         </is>
       </c>
-      <c r="D57" s="4" t="n"/>
-    </row>
-    <row r="58" ht="18.75" customHeight="1">
-      <c r="A58" s="10" t="n">
+      <c r="D57" s="8" t="n"/>
+    </row>
+    <row r="58" ht="19.5" customHeight="1">
+      <c r="A58" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="B58" s="13" t="inlineStr">
+      <c r="B58" s="9" t="inlineStr">
         <is>
           <t>Julianna</t>
         </is>
       </c>
-      <c r="C58" s="13" t="inlineStr">
+      <c r="C58" s="9" t="inlineStr">
         <is>
           <t>Poole</t>
         </is>
       </c>
-      <c r="D58" s="4" t="n"/>
-    </row>
-    <row r="59" ht="18.75" customHeight="1">
-      <c r="A59" s="10" t="n">
+      <c r="D58" s="8" t="n"/>
+    </row>
+    <row r="59" ht="19.5" customHeight="1">
+      <c r="A59" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="B59" s="13" t="inlineStr">
+      <c r="B59" s="9" t="inlineStr">
         <is>
           <t>Quincy</t>
         </is>
       </c>
-      <c r="C59" s="13" t="inlineStr">
+      <c r="C59" s="9" t="inlineStr">
         <is>
           <t>Buck</t>
         </is>
       </c>
-      <c r="D59" s="4" t="n"/>
-    </row>
-    <row r="60" ht="18.75" customHeight="1">
-      <c r="A60" s="10" t="n">
+      <c r="D59" s="8" t="n"/>
+    </row>
+    <row r="60" ht="19.5" customHeight="1">
+      <c r="A60" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="B60" s="13" t="inlineStr">
+      <c r="B60" s="9" t="inlineStr">
         <is>
           <t>Livia</t>
         </is>
       </c>
-      <c r="C60" s="13" t="inlineStr">
+      <c r="C60" s="9" t="inlineStr">
         <is>
           <t>Levy</t>
         </is>
       </c>
-      <c r="D60" s="4" t="n"/>
-    </row>
-    <row r="61" ht="18.75" customHeight="1">
-      <c r="A61" s="10" t="n">
+      <c r="D60" s="8" t="n"/>
+    </row>
+    <row r="61" ht="19.5" customHeight="1">
+      <c r="A61" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="B61" s="13" t="inlineStr">
+      <c r="B61" s="9" t="inlineStr">
         <is>
           <t>Harold</t>
         </is>
       </c>
-      <c r="C61" s="13" t="inlineStr">
+      <c r="C61" s="9" t="inlineStr">
         <is>
           <t>Conrad</t>
         </is>
       </c>
-      <c r="D61" s="4" t="n"/>
+      <c r="D61" s="8" t="n"/>
+    </row>
+    <row r="62" ht="18.75" customHeight="1">
+      <c r="A62" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="9" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
+      <c r="C62" s="9" t="inlineStr">
+        <is>
+          <t>player</t>
+        </is>
+      </c>
+      <c r="D62" s="8" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1488,963 +1507,809 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
-    <col width="11.14785714285714" bestFit="1" customWidth="1" style="12" min="7" max="7"/>
-    <col width="11.14785714285714" bestFit="1" customWidth="1" style="12" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customFormat="1" customHeight="1" s="5">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Round</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Board</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>White Player</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>White Name</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Black Player</t>
         </is>
       </c>
-      <c r="F1" s="8" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Black Name</t>
         </is>
       </c>
-      <c r="G1" s="9" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Results White</t>
         </is>
       </c>
-      <c r="H1" s="9" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Results Black</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="10" t="n">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="n">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Julianna Poole</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Levente Puha</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Dióssi Csaba</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>55</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Mohay András</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Youness Sounni</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>39</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>István Böjti</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Nagy Zoltán</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Róbert Faragó</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tibor Farkasházi</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>47</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Agoston Berndt</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>29</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Kozek Lél Ágoston</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>31</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Máté Takács</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Akzhan Yeleukolova</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>46</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Áron Takács</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>53</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Dariia Sataeva</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sezgin Rustamov</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Bence Matuz</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>54</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ronye Vernaes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>22</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Serhii Omelchenko</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>38</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tamas Lippner</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>60</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>odd player</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Armin Kozek</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>András Forgács</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>45</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Richárd Bezzegh</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>23</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Benedek Buda</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>37</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Richárd Patócs</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>51</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Enikő Paragi</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Szántó Daniel</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>52</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Ákos Pogasits</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>8</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Dávid Répási</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>24</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Igor Vladimirov</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>36</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Dennis Szekula</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>44</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Dávid Morassi</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Krisztián Dobos</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Ahmed Walid Belhadj</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>43</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sámuel Galambos</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Dávid Kozma</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>25</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Attila Pintér</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Martin Dudás</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>58</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Livia Levy</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>28</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Benjámin Kovács</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>32</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Olivér Pavela</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>Máté Morassi</t>
         </is>
       </c>
-      <c r="E2" s="10" t="n">
-        <v>58</v>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>Livia Levy</t>
-        </is>
-      </c>
-      <c r="G2" s="10" t="n">
+      <c r="E23" t="n">
+        <v>59</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Harold Conrad</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="10" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Levente Toth</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>50</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Levente Koppany</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="n">
-        <v>59</v>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>Harold Conrad</t>
-        </is>
-      </c>
-      <c r="E3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>Armin Kozek</t>
-        </is>
-      </c>
-      <c r="G3" s="11" t="n"/>
-      <c r="H3" s="11" t="n"/>
-    </row>
-    <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="10" t="n">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>26</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Márton Gréczi</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>34</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Ben Djawid</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>Szántó Daniel</t>
-        </is>
-      </c>
-      <c r="E4" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>Levente Koppany</t>
-        </is>
-      </c>
-      <c r="G4" s="11" t="n"/>
-      <c r="H4" s="11" t="n"/>
-    </row>
-    <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="10" t="n">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Bence Juhász</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>57</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Quincy Buck</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10" t="n">
-        <v>34</v>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>Ben Djawid</t>
-        </is>
-      </c>
-      <c r="E5" s="10" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>Attila Pintér</t>
-        </is>
-      </c>
-      <c r="G5" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="11" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="10" t="n">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>19</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Benedek Komlódi</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>41</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Roland Nagy</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10" t="n">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>George Hannmer</t>
         </is>
       </c>
-      <c r="E6" s="10" t="n">
-        <v>41</v>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Roland Nagy</t>
-        </is>
-      </c>
-      <c r="G6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="11" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="10" t="n">
+      <c r="E28" t="n">
+        <v>42</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Ákos János</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10" t="n">
-        <v>57</v>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Quincy Buck</t>
-        </is>
-      </c>
-      <c r="E7" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Martin Dudás</t>
-        </is>
-      </c>
-      <c r="G7" s="11" t="n"/>
-      <c r="H7" s="11" t="n"/>
-    </row>
-    <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="10" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>49</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Boulakbech Riadh</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>11</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Zoltán Molnár</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10" t="n">
-        <v>42</v>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>Ákos János</t>
-        </is>
-      </c>
-      <c r="E8" s="10" t="n">
-        <v>17</v>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>Ahmed Walid Belhadj</t>
-        </is>
-      </c>
-      <c r="G8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>12</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Róbert Horváth</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>48</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Szabolcs Dudás</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>Zoltán Molnár</t>
-        </is>
-      </c>
-      <c r="E9" s="10" t="n">
-        <v>48</v>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>Szabolcs Dudás</t>
-        </is>
-      </c>
-      <c r="G9" s="11" t="n"/>
-      <c r="H9" s="11" t="n"/>
-    </row>
-    <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" s="10" t="n">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>Olivér Pavela</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="n">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>33</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Róbert Mátyás</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
         <v>27</v>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Dániel Gubacsi</t>
-        </is>
-      </c>
-      <c r="G10" s="11" t="n"/>
-      <c r="H10" s="11" t="n"/>
-    </row>
-    <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" s="10" t="n">
-        <v>49</v>
-      </c>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>Boulakbech Riadh</t>
-        </is>
-      </c>
-      <c r="E11" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>Levente Toth</t>
-        </is>
-      </c>
-      <c r="G11" s="11" t="n"/>
-      <c r="H11" s="11" t="n"/>
-    </row>
-    <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" s="10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>Róbert Mátyás</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="n">
-        <v>26</v>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>Márton Gréczi</t>
-        </is>
-      </c>
-      <c r="G12" s="11" t="n"/>
-      <c r="H12" s="11" t="n"/>
-    </row>
-    <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>Levente Puha</t>
-        </is>
-      </c>
-      <c r="E13" s="10" t="n">
-        <v>55</v>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>Mohay András</t>
-        </is>
-      </c>
-      <c r="G13" s="11" t="n"/>
-      <c r="H13" s="11" t="n"/>
-    </row>
-    <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" s="10" t="n">
-        <v>39</v>
-      </c>
-      <c r="D14" s="4" t="inlineStr">
-        <is>
-          <t>István Böjti</t>
-        </is>
-      </c>
-      <c r="E14" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>Róbert Faragó</t>
-        </is>
-      </c>
-      <c r="G14" s="11" t="n"/>
-      <c r="H14" s="11" t="n"/>
-    </row>
-    <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="10" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4" t="inlineStr">
-        <is>
-          <t>Bence Juhász</t>
-        </is>
-      </c>
-      <c r="E15" s="10" t="n">
-        <v>56</v>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>Julianna Poole</t>
-        </is>
-      </c>
-      <c r="G15" s="11" t="n"/>
-      <c r="H15" s="11" t="n"/>
-    </row>
-    <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" s="10" t="n">
-        <v>40</v>
-      </c>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>Nagy Zoltán</t>
-        </is>
-      </c>
-      <c r="E16" s="10" t="n">
-        <v>19</v>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>Benedek Komlódi</t>
-        </is>
-      </c>
-      <c r="G16" s="11" t="n"/>
-      <c r="H16" s="11" t="n"/>
-    </row>
-    <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="10" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>Róbert Horváth</t>
-        </is>
-      </c>
-      <c r="E17" s="10" t="n">
-        <v>47</v>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>Agoston Berndt</t>
-        </is>
-      </c>
-      <c r="G17" s="11" t="n"/>
-      <c r="H17" s="11" t="n"/>
-    </row>
-    <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="10" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="D18" s="4" t="inlineStr">
-        <is>
-          <t>Máté Takács</t>
-        </is>
-      </c>
-      <c r="E18" s="10" t="n">
-        <v>28</v>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>Benjámin Kovács</t>
-        </is>
-      </c>
-      <c r="G18" s="11" t="n"/>
-      <c r="H18" s="11" t="n"/>
-    </row>
-    <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>Tibor Farkasházi</t>
-        </is>
-      </c>
-      <c r="E19" s="10" t="n">
-        <v>46</v>
-      </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>Áron Takács</t>
-        </is>
-      </c>
-      <c r="G19" s="11" t="n"/>
-      <c r="H19" s="11" t="n"/>
-    </row>
-    <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>Roman Chaudet</t>
-        </is>
-      </c>
-      <c r="E20" s="10" t="n">
-        <v>29</v>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>Kozek Lél Ágoston</t>
-        </is>
-      </c>
-      <c r="G20" s="11" t="n"/>
-      <c r="H20" s="11" t="n"/>
-    </row>
-    <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>Bence Matuz</t>
-        </is>
-      </c>
-      <c r="E21" s="10" t="n">
-        <v>53</v>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>Dariia Sataeva</t>
-        </is>
-      </c>
-      <c r="G21" s="11" t="n"/>
-      <c r="H21" s="11" t="n"/>
-    </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C22" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>Dióssi Csaba</t>
-        </is>
-      </c>
-      <c r="E22" s="10" t="n">
-        <v>54</v>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>Ronye Vernaes</t>
-        </is>
-      </c>
-      <c r="G22" s="11" t="n"/>
-      <c r="H22" s="11" t="n"/>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C23" s="10" t="n">
-        <v>38</v>
-      </c>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>Tamas Lippner</t>
-        </is>
-      </c>
-      <c r="E23" s="10" t="n">
-        <v>21</v>
-      </c>
-      <c r="F23" s="4" t="inlineStr">
-        <is>
-          <t>Youness Sounni</t>
-        </is>
-      </c>
-      <c r="G23" s="11" t="n"/>
-      <c r="H23" s="11" t="n"/>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="C24" s="10" t="n">
-        <v>45</v>
-      </c>
-      <c r="D24" s="4" t="inlineStr">
-        <is>
-          <t>Richárd Bezzegh</t>
-        </is>
-      </c>
-      <c r="E24" s="10" t="n">
-        <v>14</v>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>Akzhan Yeleukolova</t>
-        </is>
-      </c>
-      <c r="G24" s="11" t="n"/>
-      <c r="H24" s="11" t="n"/>
-    </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C25" s="10" t="n">
-        <v>51</v>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>Enikő Paragi</t>
-        </is>
-      </c>
-      <c r="E25" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>Dávid Répási</t>
-        </is>
-      </c>
-      <c r="G25" s="11" t="n"/>
-      <c r="H25" s="11" t="n"/>
-    </row>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C26" s="10" t="n">
-        <v>52</v>
-      </c>
-      <c r="D26" s="4" t="inlineStr">
-        <is>
-          <t>Ákos Pogasits</t>
-        </is>
-      </c>
-      <c r="E26" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>Sezgin Rustamov</t>
-        </is>
-      </c>
-      <c r="G26" s="11" t="n"/>
-      <c r="H26" s="11" t="n"/>
-    </row>
-    <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C27" s="10" t="n">
-        <v>23</v>
-      </c>
-      <c r="D27" s="4" t="inlineStr">
-        <is>
-          <t>Benedek Buda</t>
-        </is>
-      </c>
-      <c r="E27" s="10" t="n">
-        <v>36</v>
-      </c>
-      <c r="F27" s="4" t="inlineStr">
-        <is>
-          <t>Dennis Szekula</t>
-        </is>
-      </c>
-      <c r="G27" s="11" t="n"/>
-      <c r="H27" s="11" t="n"/>
-    </row>
-    <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C28" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="D28" s="4" t="inlineStr">
-        <is>
-          <t>Serhii Omelchenko</t>
-        </is>
-      </c>
-      <c r="E28" s="10" t="n">
-        <v>37</v>
-      </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>Richárd Patócs</t>
-        </is>
-      </c>
-      <c r="G28" s="11" t="n"/>
-      <c r="H28" s="11" t="n"/>
-    </row>
-    <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="C29" s="10" t="n">
-        <v>16</v>
-      </c>
-      <c r="D29" s="4" t="inlineStr">
-        <is>
-          <t>Krisztián Dobos</t>
-        </is>
-      </c>
-      <c r="E29" s="10" t="n">
-        <v>43</v>
-      </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>Sámuel Galambos</t>
-        </is>
-      </c>
-      <c r="G29" s="11" t="n"/>
-      <c r="H29" s="11" t="n"/>
-    </row>
-    <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="C30" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>András Forgács</t>
-        </is>
-      </c>
-      <c r="E30" s="10" t="n">
-        <v>44</v>
-      </c>
-      <c r="F30" s="4" t="inlineStr">
-        <is>
-          <t>Dávid Morassi</t>
-        </is>
-      </c>
-      <c r="G30" s="11" t="n"/>
-      <c r="H30" s="11" t="n"/>
-    </row>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" s="10" t="n">
-        <v>13</v>
-      </c>
-      <c r="C31" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="D31" s="4" t="inlineStr">
-        <is>
-          <t>Igor Vladimirov</t>
-        </is>
-      </c>
-      <c r="E31" s="10" t="n">
-        <v>35</v>
-      </c>
-      <c r="F31" s="4" t="inlineStr">
-        <is>
-          <t>Dávid Kozma</t>
-        </is>
-      </c>
-      <c r="G31" s="11" t="n"/>
-      <c r="H31" s="11" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>17</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Ahmed Walid Belhadj</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Máté Morassi</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>25</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Attila Pintér</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>18</v>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>George Hannmer</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>58</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Livia Levy</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>42</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Ákos János</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>41</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Roland Nagy</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>34</v>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Ben Djawid</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2505,11 +2370,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Máté Morassi</t>
+          <t>Armin Kozek</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2527,11 +2392,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ahmed Walid Belhadj</t>
+          <t>Máté Morassi</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2549,14 +2414,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>George Hannmer</t>
+          <t>Martin Dudás</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2571,14 +2436,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Attila Pintér</t>
+          <t>Bence Juhász</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2593,14 +2458,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ben Djawid</t>
+          <t>Levente Puha</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2615,14 +2480,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Roland Nagy</t>
+          <t>Dióssi Csaba</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2637,14 +2502,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ákos János</t>
+          <t>Bence Matuz</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -2659,14 +2524,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Livia Levy</t>
+          <t>Sezgin Rustamov</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2681,7 +2546,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Armin Kozek</t>
+          <t>Dávid Répási</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -2703,7 +2568,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Martin Dudás</t>
+          <t>Szántó Daniel</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -2725,7 +2590,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bence Juhász</t>
+          <t>Levente Toth</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -2747,7 +2612,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Levente Puha</t>
+          <t>Zoltán Molnár</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -2769,7 +2634,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dióssi Csaba</t>
+          <t>Róbert Horváth</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -2791,7 +2656,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bence Matuz</t>
+          <t>Tibor Farkasházi</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -2813,7 +2678,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sezgin Rustamov</t>
+          <t>Akzhan Yeleukolova</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -2835,7 +2700,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dávid Répási</t>
+          <t>András Forgács</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -2857,7 +2722,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Szántó Daniel</t>
+          <t>Krisztián Dobos</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2879,7 +2744,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Levente Toth</t>
+          <t>Ahmed Walid Belhadj</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2901,7 +2766,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Zoltán Molnár</t>
+          <t>George Hannmer</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2923,7 +2788,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Róbert Horváth</t>
+          <t>Benedek Komlódi</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2945,7 +2810,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tibor Farkasházi</t>
+          <t>Róbert Faragó</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2967,7 +2832,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Akzhan Yeleukolova</t>
+          <t>Youness Sounni</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2989,7 +2854,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>András Forgács</t>
+          <t>Serhii Omelchenko</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3011,7 +2876,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Krisztián Dobos</t>
+          <t>Benedek Buda</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3033,7 +2898,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Benedek Komlódi</t>
+          <t>Igor Vladimirov</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3055,7 +2920,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Róbert Faragó</t>
+          <t>Attila Pintér</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3077,7 +2942,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Youness Sounni</t>
+          <t>Márton Gréczi</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3099,7 +2964,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Serhii Omelchenko</t>
+          <t>Dániel Gubacsi</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3121,7 +2986,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Benedek Buda</t>
+          <t>Benjámin Kovács</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3143,7 +3008,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Igor Vladimirov</t>
+          <t>Kozek Lél Ágoston</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3165,7 +3030,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Márton Gréczi</t>
+          <t>Roman Chaudet</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3187,7 +3052,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dániel Gubacsi</t>
+          <t>Máté Takács</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3209,7 +3074,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Benjámin Kovács</t>
+          <t>Olivér Pavela</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3231,7 +3096,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Kozek Lél Ágoston</t>
+          <t>Róbert Mátyás</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3253,7 +3118,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Roman Chaudet</t>
+          <t>Ben Djawid</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3275,7 +3140,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Máté Takács</t>
+          <t>Dávid Kozma</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3297,7 +3162,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Olivér Pavela</t>
+          <t>Dennis Szekula</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3319,7 +3184,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Róbert Mátyás</t>
+          <t>Richárd Patócs</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3341,7 +3206,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Dávid Kozma</t>
+          <t>Tamas Lippner</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3363,7 +3228,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dennis Szekula</t>
+          <t>István Böjti</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -3385,7 +3250,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Richárd Patócs</t>
+          <t>Nagy Zoltán</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -3407,7 +3272,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tamas Lippner</t>
+          <t>Roland Nagy</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -3429,7 +3294,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>István Böjti</t>
+          <t>Ákos János</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -3451,7 +3316,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Nagy Zoltán</t>
+          <t>Sámuel Galambos</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -3473,7 +3338,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sámuel Galambos</t>
+          <t>Dávid Morassi</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -3495,7 +3360,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Dávid Morassi</t>
+          <t>Richárd Bezzegh</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -3517,7 +3382,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Richárd Bezzegh</t>
+          <t>Áron Takács</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -3539,7 +3404,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Áron Takács</t>
+          <t>Agoston Berndt</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -3561,7 +3426,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Agoston Berndt</t>
+          <t>Szabolcs Dudás</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -3583,7 +3448,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Szabolcs Dudás</t>
+          <t>Boulakbech Riadh</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -3605,7 +3470,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Boulakbech Riadh</t>
+          <t>Levente Koppany</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -3627,7 +3492,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Levente Koppany</t>
+          <t>Enikő Paragi</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -3649,7 +3514,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Enikő Paragi</t>
+          <t>Ákos Pogasits</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -3671,7 +3536,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ákos Pogasits</t>
+          <t>Dariia Sataeva</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -3693,7 +3558,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Dariia Sataeva</t>
+          <t>Ronye Vernaes</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -3715,7 +3580,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ronye Vernaes</t>
+          <t>Mohay András</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -3737,7 +3602,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mohay András</t>
+          <t>Julianna Poole</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -3759,7 +3624,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Julianna Poole</t>
+          <t>Quincy Buck</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -3781,7 +3646,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Quincy Buck</t>
+          <t>Livia Levy</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -3816,6 +3681,28 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>odd player</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
         <v>0</v>
       </c>
     </row>
